--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.3893325524119</v>
+        <v>427.6059436481596</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.0059370402669</v>
+        <v>585.069316742247</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.7801072595985</v>
+        <v>529.2311223023094</v>
       </c>
       <c r="AD2" t="n">
-        <v>300389.3325524119</v>
+        <v>427605.9436481596</v>
       </c>
       <c r="AE2" t="n">
-        <v>411005.9370402669</v>
+        <v>585069.316742247</v>
       </c>
       <c r="AF2" t="n">
         <v>6.371152039394656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>371780.1072595986</v>
+        <v>529231.1223023094</v>
       </c>
     </row>
     <row r="3">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.6618701808878</v>
+        <v>391.0899600062872</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.4362438911268</v>
+        <v>535.1065369519356</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.7005742987258</v>
+        <v>484.0367200919836</v>
       </c>
       <c r="AD3" t="n">
-        <v>273661.8701808878</v>
+        <v>391089.9600062872</v>
       </c>
       <c r="AE3" t="n">
-        <v>374436.2438911268</v>
+        <v>535106.5369519356</v>
       </c>
       <c r="AF3" t="n">
         <v>6.892965609950974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>338700.5742987258</v>
+        <v>484036.7200919836</v>
       </c>
     </row>
     <row r="4">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.0449220709646</v>
+        <v>366.6171708183111</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.4366906328908</v>
+        <v>501.6217871216866</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.6097503339064</v>
+        <v>453.747707789392</v>
       </c>
       <c r="AD4" t="n">
-        <v>259044.9220709646</v>
+        <v>366617.1708183112</v>
       </c>
       <c r="AE4" t="n">
-        <v>354436.6906328907</v>
+        <v>501621.7871216866</v>
       </c>
       <c r="AF4" t="n">
         <v>7.303160015264707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>320609.7503339064</v>
+        <v>453747.707789392</v>
       </c>
     </row>
     <row r="5">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.2317718490672</v>
+        <v>353.8713404041214</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.9051732228394</v>
+        <v>484.1823796426398</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.7514163399323</v>
+        <v>437.9726928837834</v>
       </c>
       <c r="AD5" t="n">
-        <v>246231.7718490672</v>
+        <v>353871.3404041214</v>
       </c>
       <c r="AE5" t="n">
-        <v>336905.1732228394</v>
+        <v>484182.3796426398</v>
       </c>
       <c r="AF5" t="n">
         <v>7.578410948128036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>304751.4163399324</v>
+        <v>437972.6928837834</v>
       </c>
     </row>
     <row r="6">
@@ -7736,28 +7736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.4615800191758</v>
+        <v>341.279472914958</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.1148745489457</v>
+        <v>466.9536310299791</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.3228584517562</v>
+        <v>422.3882318580144</v>
       </c>
       <c r="AD6" t="n">
-        <v>243461.5800191758</v>
+        <v>341279.472914958</v>
       </c>
       <c r="AE6" t="n">
-        <v>333114.8745489457</v>
+        <v>466953.6310299791</v>
       </c>
       <c r="AF6" t="n">
         <v>7.838835577184845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>301322.8584517562</v>
+        <v>422388.2318580144</v>
       </c>
     </row>
     <row r="7">
@@ -7842,28 +7842,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>233.4224914575033</v>
+        <v>341.0278945937764</v>
       </c>
       <c r="AB7" t="n">
-        <v>319.3789506855426</v>
+        <v>466.6094104720862</v>
       </c>
       <c r="AC7" t="n">
-        <v>288.8978718833818</v>
+        <v>422.0768632270503</v>
       </c>
       <c r="AD7" t="n">
-        <v>233422.4914575033</v>
+        <v>341027.8945937764</v>
       </c>
       <c r="AE7" t="n">
-        <v>319378.9506855427</v>
+        <v>466609.4104720862</v>
       </c>
       <c r="AF7" t="n">
         <v>7.866921177078499e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>288897.8718833818</v>
+        <v>422076.8632270503</v>
       </c>
     </row>
     <row r="8">
@@ -7948,28 +7948,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>231.3424917440236</v>
+        <v>329.22770444751</v>
       </c>
       <c r="AB8" t="n">
-        <v>316.5330033144501</v>
+        <v>450.4638697263164</v>
       </c>
       <c r="AC8" t="n">
-        <v>286.3235377350733</v>
+        <v>407.4722302296479</v>
       </c>
       <c r="AD8" t="n">
-        <v>231342.4917440236</v>
+        <v>329227.70444751</v>
       </c>
       <c r="AE8" t="n">
-        <v>316533.0033144502</v>
+        <v>450463.8697263164</v>
       </c>
       <c r="AF8" t="n">
         <v>8.039533104321891e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>286323.5377350732</v>
+        <v>407472.2302296479</v>
       </c>
     </row>
     <row r="9">
@@ -8054,28 +8054,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>229.7667522412521</v>
+        <v>327.5504797182533</v>
       </c>
       <c r="AB9" t="n">
-        <v>314.3770070100387</v>
+        <v>448.1690168578147</v>
       </c>
       <c r="AC9" t="n">
-        <v>284.3733066919943</v>
+        <v>405.3963948980698</v>
       </c>
       <c r="AD9" t="n">
-        <v>229766.7522412521</v>
+        <v>327550.4797182532</v>
       </c>
       <c r="AE9" t="n">
-        <v>314377.0070100387</v>
+        <v>448169.0168578146</v>
       </c>
       <c r="AF9" t="n">
         <v>8.175862775908677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>284373.3066919943</v>
+        <v>405396.3948980698</v>
       </c>
     </row>
     <row r="10">
@@ -8160,28 +8160,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>218.3200175654585</v>
+        <v>316.1710648501639</v>
       </c>
       <c r="AB10" t="n">
-        <v>298.7150796323326</v>
+        <v>432.599199410942</v>
       </c>
       <c r="AC10" t="n">
-        <v>270.2061316815582</v>
+        <v>391.3125389759505</v>
       </c>
       <c r="AD10" t="n">
-        <v>218320.0175654585</v>
+        <v>316171.0648501639</v>
       </c>
       <c r="AE10" t="n">
-        <v>298715.0796323325</v>
+        <v>432599.199410942</v>
       </c>
       <c r="AF10" t="n">
         <v>8.323884735863206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>270206.1316815583</v>
+        <v>391312.5389759505</v>
       </c>
     </row>
     <row r="11">
@@ -8266,28 +8266,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>217.6446318857149</v>
+        <v>315.4956791704203</v>
       </c>
       <c r="AB11" t="n">
-        <v>297.7909871493945</v>
+        <v>431.6751069280034</v>
       </c>
       <c r="AC11" t="n">
-        <v>269.3702332882196</v>
+        <v>390.4766405826117</v>
       </c>
       <c r="AD11" t="n">
-        <v>217644.6318857149</v>
+        <v>315495.6791704203</v>
       </c>
       <c r="AE11" t="n">
-        <v>297790.9871493945</v>
+        <v>431675.1069280034</v>
       </c>
       <c r="AF11" t="n">
         <v>8.374330330521977e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>269370.2332882196</v>
+        <v>390476.6405826117</v>
       </c>
     </row>
     <row r="12">
@@ -8372,28 +8372,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>217.612798049164</v>
+        <v>315.4638453338694</v>
       </c>
       <c r="AB12" t="n">
-        <v>297.7474306898158</v>
+        <v>431.6315504684247</v>
       </c>
       <c r="AC12" t="n">
-        <v>269.3308337960112</v>
+        <v>390.4372410904033</v>
       </c>
       <c r="AD12" t="n">
-        <v>217612.798049164</v>
+        <v>315463.8453338693</v>
       </c>
       <c r="AE12" t="n">
-        <v>297747.4306898158</v>
+        <v>431631.5504684247</v>
       </c>
       <c r="AF12" t="n">
         <v>8.377886232654436e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>269330.8337960112</v>
+        <v>390437.2410904033</v>
       </c>
     </row>
   </sheetData>
@@ -8669,28 +8669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.1778137880306</v>
+        <v>601.2360458773366</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.9565070474075</v>
+        <v>822.6376826317</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.6518860239603</v>
+        <v>744.126296780569</v>
       </c>
       <c r="AD2" t="n">
-        <v>431177.8137880306</v>
+        <v>601236.0458773365</v>
       </c>
       <c r="AE2" t="n">
-        <v>589956.5070474076</v>
+        <v>822637.6826317001</v>
       </c>
       <c r="AF2" t="n">
         <v>4.113851643669473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>533651.8860239603</v>
+        <v>744126.296780569</v>
       </c>
     </row>
     <row r="3">
@@ -8775,28 +8775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.5136682547648</v>
+        <v>523.650575837077</v>
       </c>
       <c r="AB3" t="n">
-        <v>511.0578791662363</v>
+        <v>716.4818196932499</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.2832324528482</v>
+        <v>648.101800410275</v>
       </c>
       <c r="AD3" t="n">
-        <v>373513.6682547648</v>
+        <v>523650.5758370769</v>
       </c>
       <c r="AE3" t="n">
-        <v>511057.8791662363</v>
+        <v>716481.8196932499</v>
       </c>
       <c r="AF3" t="n">
         <v>4.6283261861745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>462283.2324528482</v>
+        <v>648101.800410275</v>
       </c>
     </row>
     <row r="4">
@@ -8881,28 +8881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.4528451374047</v>
+        <v>483.5783478529773</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.9273347871461</v>
+        <v>661.6532295034756</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.0781295022168</v>
+        <v>598.5059739158031</v>
       </c>
       <c r="AD4" t="n">
-        <v>343452.8451374047</v>
+        <v>483578.3478529773</v>
       </c>
       <c r="AE4" t="n">
-        <v>469927.3347871461</v>
+        <v>661653.2295034756</v>
       </c>
       <c r="AF4" t="n">
         <v>5.010868432789947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>425078.1295022168</v>
+        <v>598505.9739158031</v>
       </c>
     </row>
     <row r="5">
@@ -8987,28 +8987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.5567444133545</v>
+        <v>457.6035224544832</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.177588490031</v>
+        <v>626.113327464835</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.4041484657378</v>
+        <v>566.3579502471646</v>
       </c>
       <c r="AD5" t="n">
-        <v>327556.7444133546</v>
+        <v>457603.5224544832</v>
       </c>
       <c r="AE5" t="n">
-        <v>448177.588490031</v>
+        <v>626113.327464835</v>
       </c>
       <c r="AF5" t="n">
         <v>5.28240945761156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>405404.1484657378</v>
+        <v>566357.9502471646</v>
       </c>
     </row>
     <row r="6">
@@ -9093,28 +9093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>312.9684752401524</v>
+        <v>433.0380138333224</v>
       </c>
       <c r="AB6" t="n">
-        <v>428.2172750182422</v>
+        <v>592.5017148156098</v>
       </c>
       <c r="AC6" t="n">
-        <v>387.3488192972205</v>
+        <v>535.9541827349867</v>
       </c>
       <c r="AD6" t="n">
-        <v>312968.4752401524</v>
+        <v>433038.0138333224</v>
       </c>
       <c r="AE6" t="n">
-        <v>428217.2750182422</v>
+        <v>592501.7148156099</v>
       </c>
       <c r="AF6" t="n">
         <v>5.506612478671395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>387348.8192972205</v>
+        <v>535954.1827349868</v>
       </c>
     </row>
     <row r="7">
@@ -9199,28 +9199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.4238369395844</v>
+        <v>419.4592101139735</v>
       </c>
       <c r="AB7" t="n">
-        <v>409.684903348136</v>
+        <v>573.9225965122558</v>
       </c>
       <c r="AC7" t="n">
-        <v>370.5851511689623</v>
+        <v>519.1482294065486</v>
       </c>
       <c r="AD7" t="n">
-        <v>299423.8369395843</v>
+        <v>419459.2101139735</v>
       </c>
       <c r="AE7" t="n">
-        <v>409684.903348136</v>
+        <v>573922.5965122558</v>
       </c>
       <c r="AF7" t="n">
         <v>5.695913317498224e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>370585.1511689624</v>
+        <v>519148.2294065486</v>
       </c>
     </row>
     <row r="8">
@@ -9305,28 +9305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.8090081843888</v>
+        <v>406.9117011664824</v>
       </c>
       <c r="AB8" t="n">
-        <v>392.4247381183105</v>
+        <v>556.7545412132718</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.9722718838773</v>
+        <v>503.6186692097828</v>
       </c>
       <c r="AD8" t="n">
-        <v>286809.0081843888</v>
+        <v>406911.7011664824</v>
       </c>
       <c r="AE8" t="n">
-        <v>392424.7381183105</v>
+        <v>556754.5412132718</v>
       </c>
       <c r="AF8" t="n">
         <v>5.844426708759497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH8" t="n">
-        <v>354972.2718838773</v>
+        <v>503618.6692097827</v>
       </c>
     </row>
     <row r="9">
@@ -9411,28 +9411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>283.8829291740166</v>
+        <v>393.941062900447</v>
       </c>
       <c r="AB9" t="n">
-        <v>388.4211477268239</v>
+        <v>539.0075417135075</v>
       </c>
       <c r="AC9" t="n">
-        <v>351.3507785402797</v>
+        <v>487.5654184342056</v>
       </c>
       <c r="AD9" t="n">
-        <v>283882.9291740166</v>
+        <v>393941.062900447</v>
       </c>
       <c r="AE9" t="n">
-        <v>388421.1477268239</v>
+        <v>539007.5417135075</v>
       </c>
       <c r="AF9" t="n">
         <v>6.017402333316048e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>351350.7785402798</v>
+        <v>487565.4184342056</v>
       </c>
     </row>
     <row r="10">
@@ -9517,28 +9517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>271.6389330608003</v>
+        <v>381.7643865949352</v>
       </c>
       <c r="AB10" t="n">
-        <v>371.6683720777361</v>
+        <v>522.3468759952611</v>
       </c>
       <c r="AC10" t="n">
-        <v>336.1968642864726</v>
+        <v>472.4948232687175</v>
       </c>
       <c r="AD10" t="n">
-        <v>271638.9330608003</v>
+        <v>381764.3865949352</v>
       </c>
       <c r="AE10" t="n">
-        <v>371668.3720777361</v>
+        <v>522346.8759952611</v>
       </c>
       <c r="AF10" t="n">
         <v>6.142579368128273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>336196.8642864726</v>
+        <v>472494.8232687176</v>
       </c>
     </row>
     <row r="11">
@@ -9623,28 +9623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>271.7281384003571</v>
+        <v>381.8535919344919</v>
       </c>
       <c r="AB11" t="n">
-        <v>371.7904267587793</v>
+        <v>522.4689306763045</v>
       </c>
       <c r="AC11" t="n">
-        <v>336.307270240062</v>
+        <v>472.6052292223069</v>
       </c>
       <c r="AD11" t="n">
-        <v>271728.1384003571</v>
+        <v>381853.5919344919</v>
       </c>
       <c r="AE11" t="n">
-        <v>371790.4267587793</v>
+        <v>522468.9306763044</v>
       </c>
       <c r="AF11" t="n">
         <v>6.153633431709402e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>336307.270240062</v>
+        <v>472605.2292223069</v>
       </c>
     </row>
     <row r="12">
@@ -9729,28 +9729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>270.8996130135867</v>
+        <v>380.9235813212363</v>
       </c>
       <c r="AB12" t="n">
-        <v>370.6568017726398</v>
+        <v>521.1964491260755</v>
       </c>
       <c r="AC12" t="n">
-        <v>335.281836831547</v>
+        <v>471.4541915252928</v>
       </c>
       <c r="AD12" t="n">
-        <v>270899.6130135867</v>
+        <v>380923.5813212363</v>
       </c>
       <c r="AE12" t="n">
-        <v>370656.8017726398</v>
+        <v>521196.4491260756</v>
       </c>
       <c r="AF12" t="n">
         <v>6.205065533093819e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>335281.836831547</v>
+        <v>471454.1915252928</v>
       </c>
     </row>
     <row r="13">
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>269.6431046255283</v>
+        <v>379.667072933178</v>
       </c>
       <c r="AB13" t="n">
-        <v>368.9375915628605</v>
+        <v>519.4772389162963</v>
       </c>
       <c r="AC13" t="n">
-        <v>333.7267056312623</v>
+        <v>469.8990603250082</v>
       </c>
       <c r="AD13" t="n">
-        <v>269643.1046255283</v>
+        <v>379667.072933178</v>
       </c>
       <c r="AE13" t="n">
-        <v>368937.5915628605</v>
+        <v>519477.2389162963</v>
       </c>
       <c r="AF13" t="n">
         <v>6.271389914580591e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>333726.7056312623</v>
+        <v>469899.0603250082</v>
       </c>
     </row>
     <row r="14">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>257.7586033119808</v>
+        <v>367.8498914273382</v>
       </c>
       <c r="AB14" t="n">
-        <v>352.676692558304</v>
+        <v>503.3084498427524</v>
       </c>
       <c r="AC14" t="n">
-        <v>319.0177240054916</v>
+        <v>455.2733977876053</v>
       </c>
       <c r="AD14" t="n">
-        <v>257758.6033119808</v>
+        <v>367849.8914273382</v>
       </c>
       <c r="AE14" t="n">
-        <v>352676.692558304</v>
+        <v>503308.4498427524</v>
       </c>
       <c r="AF14" t="n">
         <v>6.395236367665458e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>319017.7240054916</v>
+        <v>455273.3977876053</v>
       </c>
     </row>
     <row r="15">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>257.4854185172103</v>
+        <v>367.5767066325677</v>
       </c>
       <c r="AB15" t="n">
-        <v>352.3029090700366</v>
+        <v>502.9346663544849</v>
       </c>
       <c r="AC15" t="n">
-        <v>318.679613888736</v>
+        <v>454.9352876708496</v>
       </c>
       <c r="AD15" t="n">
-        <v>257485.4185172103</v>
+        <v>367576.7066325677</v>
       </c>
       <c r="AE15" t="n">
-        <v>352302.9090700366</v>
+        <v>502934.6663544849</v>
       </c>
       <c r="AF15" t="n">
         <v>6.395696953648005e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>318679.6138887359</v>
+        <v>454935.2876708496</v>
       </c>
     </row>
     <row r="16">
@@ -10153,28 +10153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>256.5956841854243</v>
+        <v>366.6869723007816</v>
       </c>
       <c r="AB16" t="n">
-        <v>351.0855353049791</v>
+        <v>501.7172925894267</v>
       </c>
       <c r="AC16" t="n">
-        <v>317.5784245672204</v>
+        <v>453.8340983493338</v>
       </c>
       <c r="AD16" t="n">
-        <v>256595.6841854243</v>
+        <v>366686.9723007816</v>
       </c>
       <c r="AE16" t="n">
-        <v>351085.5353049791</v>
+        <v>501717.2925894267</v>
       </c>
       <c r="AF16" t="n">
         <v>6.454191373431478e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>317578.4245672204</v>
+        <v>453834.0983493338</v>
       </c>
     </row>
     <row r="17">
@@ -10259,28 +10259,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>255.382311192374</v>
+        <v>355.4290400520681</v>
       </c>
       <c r="AB17" t="n">
-        <v>349.42534484565</v>
+        <v>486.313693021819</v>
       </c>
       <c r="AC17" t="n">
-        <v>316.0766803552371</v>
+        <v>439.9005967053707</v>
       </c>
       <c r="AD17" t="n">
-        <v>255382.311192374</v>
+        <v>355429.0400520681</v>
       </c>
       <c r="AE17" t="n">
-        <v>349425.34484565</v>
+        <v>486313.693021819</v>
       </c>
       <c r="AF17" t="n">
         <v>6.525735729387115e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>316076.6803552371</v>
+        <v>439900.5967053707</v>
       </c>
     </row>
     <row r="18">
@@ -10365,28 +10365,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>254.1202197935342</v>
+        <v>354.1669486532284</v>
       </c>
       <c r="AB18" t="n">
-        <v>347.6984957142155</v>
+        <v>484.5868438903836</v>
       </c>
       <c r="AC18" t="n">
-        <v>314.5146392812582</v>
+        <v>438.3385556313914</v>
       </c>
       <c r="AD18" t="n">
-        <v>254120.2197935342</v>
+        <v>354166.9486532283</v>
       </c>
       <c r="AE18" t="n">
-        <v>347698.4957142155</v>
+        <v>484586.8438903836</v>
       </c>
       <c r="AF18" t="n">
         <v>6.604086522640393e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>314514.6392812582</v>
+        <v>438338.5556313915</v>
       </c>
     </row>
     <row r="19">
@@ -10471,28 +10471,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>254.1159289402787</v>
+        <v>354.1626577999729</v>
       </c>
       <c r="AB19" t="n">
-        <v>347.6926247794923</v>
+        <v>484.5809729556603</v>
       </c>
       <c r="AC19" t="n">
-        <v>314.509328660305</v>
+        <v>438.3332450104383</v>
       </c>
       <c r="AD19" t="n">
-        <v>254115.9289402787</v>
+        <v>354162.6577999729</v>
       </c>
       <c r="AE19" t="n">
-        <v>347692.6247794923</v>
+        <v>484580.9729556603</v>
       </c>
       <c r="AF19" t="n">
         <v>6.581927219257853e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>314509.328660305</v>
+        <v>438333.2450104383</v>
       </c>
     </row>
     <row r="20">
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>252.9733994530031</v>
+        <v>353.0201283126973</v>
       </c>
       <c r="AB20" t="n">
-        <v>346.129365530159</v>
+        <v>483.0177137063263</v>
       </c>
       <c r="AC20" t="n">
-        <v>313.0952646796795</v>
+        <v>436.9191810298125</v>
       </c>
       <c r="AD20" t="n">
-        <v>252973.3994530031</v>
+        <v>353020.1283126973</v>
       </c>
       <c r="AE20" t="n">
-        <v>346129.365530159</v>
+        <v>483017.7137063263</v>
       </c>
       <c r="AF20" t="n">
         <v>6.64748395744038e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>313095.2646796795</v>
+        <v>436919.1810298125</v>
       </c>
     </row>
     <row r="21">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>252.8434426172316</v>
+        <v>352.8901714769257</v>
       </c>
       <c r="AB21" t="n">
-        <v>345.9515528541655</v>
+        <v>482.8399010303327</v>
       </c>
       <c r="AC21" t="n">
-        <v>312.9344221959211</v>
+        <v>436.7583385460541</v>
       </c>
       <c r="AD21" t="n">
-        <v>252843.4426172316</v>
+        <v>352890.1714769257</v>
       </c>
       <c r="AE21" t="n">
-        <v>345951.5528541655</v>
+        <v>482839.9010303327</v>
       </c>
       <c r="AF21" t="n">
         <v>6.648200424524341e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>312934.4221959211</v>
+        <v>436758.3385460541</v>
       </c>
     </row>
     <row r="22">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>241.5486648872177</v>
+        <v>351.605787583794</v>
       </c>
       <c r="AB22" t="n">
-        <v>330.4975396735423</v>
+        <v>481.0825503247316</v>
       </c>
       <c r="AC22" t="n">
-        <v>298.955318343408</v>
+        <v>435.1687069253384</v>
       </c>
       <c r="AD22" t="n">
-        <v>241548.6648872177</v>
+        <v>351605.787583794</v>
       </c>
       <c r="AE22" t="n">
-        <v>330497.5396735423</v>
+        <v>481082.5503247316</v>
       </c>
       <c r="AF22" t="n">
         <v>6.712631285860642e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH22" t="n">
-        <v>298955.3183434079</v>
+        <v>435168.7069253384</v>
       </c>
     </row>
     <row r="23">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>241.5584457680075</v>
+        <v>351.6155684645839</v>
       </c>
       <c r="AB23" t="n">
-        <v>330.510922306141</v>
+        <v>481.0959329573303</v>
       </c>
       <c r="AC23" t="n">
-        <v>298.9674237563341</v>
+        <v>435.1808123382646</v>
       </c>
       <c r="AD23" t="n">
-        <v>241558.4457680075</v>
+        <v>351615.5684645839</v>
       </c>
       <c r="AE23" t="n">
-        <v>330510.922306141</v>
+        <v>481095.9329573303</v>
       </c>
       <c r="AF23" t="n">
         <v>6.70746248761206e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>298967.4237563341</v>
+        <v>435180.8123382645</v>
       </c>
     </row>
     <row r="24">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>241.4572215936672</v>
+        <v>351.5143442902435</v>
       </c>
       <c r="AB24" t="n">
-        <v>330.3724229251132</v>
+        <v>480.9574335763024</v>
       </c>
       <c r="AC24" t="n">
-        <v>298.8421425618464</v>
+        <v>435.0555311437769</v>
       </c>
       <c r="AD24" t="n">
-        <v>241457.2215936672</v>
+        <v>351514.3442902435</v>
       </c>
       <c r="AE24" t="n">
-        <v>330372.4229251132</v>
+        <v>480957.4335763024</v>
       </c>
       <c r="AF24" t="n">
         <v>6.706285434545549e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>298842.1425618464</v>
+        <v>435055.5311437769</v>
       </c>
     </row>
     <row r="25">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>241.4989913620725</v>
+        <v>351.5561140586488</v>
       </c>
       <c r="AB25" t="n">
-        <v>330.4295741649974</v>
+        <v>481.0145848161866</v>
       </c>
       <c r="AC25" t="n">
-        <v>298.8938393676084</v>
+        <v>435.1072279495389</v>
       </c>
       <c r="AD25" t="n">
-        <v>241498.9913620725</v>
+        <v>351556.1140586488</v>
       </c>
       <c r="AE25" t="n">
-        <v>330429.5741649974</v>
+        <v>481014.5848161866</v>
       </c>
       <c r="AF25" t="n">
         <v>6.705517791241305e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>298893.8393676084</v>
+        <v>435107.2279495389</v>
       </c>
     </row>
   </sheetData>
@@ -11404,28 +11404,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8141580535052</v>
+        <v>336.1073665996931</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.01957855196</v>
+        <v>459.8769269922071</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.0956047393919</v>
+        <v>415.9869185213909</v>
       </c>
       <c r="AD2" t="n">
-        <v>236814.1580535052</v>
+        <v>336107.3665996931</v>
       </c>
       <c r="AE2" t="n">
-        <v>324019.5785519599</v>
+        <v>459876.9269922071</v>
       </c>
       <c r="AF2" t="n">
         <v>1.719786296780664e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>293095.6047393919</v>
+        <v>415986.9185213909</v>
       </c>
     </row>
   </sheetData>
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.8977611150015</v>
+        <v>287.8184120519304</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.6136679748922</v>
+        <v>393.8058490216366</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.1186091366801</v>
+        <v>356.2215715009913</v>
       </c>
       <c r="AD2" t="n">
-        <v>202897.7611150015</v>
+        <v>287818.4120519303</v>
       </c>
       <c r="AE2" t="n">
-        <v>277613.6679748922</v>
+        <v>393805.8490216366</v>
       </c>
       <c r="AF2" t="n">
         <v>1.188937019643023e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251118.6091366801</v>
+        <v>356221.5715009913</v>
       </c>
     </row>
     <row r="3">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6798992213729</v>
+        <v>287.6005501583017</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.3155797206413</v>
+        <v>393.5077607673855</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.8489700070453</v>
+        <v>355.9519323713564</v>
       </c>
       <c r="AD3" t="n">
-        <v>202679.8992213729</v>
+        <v>287600.5501583017</v>
       </c>
       <c r="AE3" t="n">
-        <v>277315.5797206413</v>
+        <v>393507.7607673855</v>
       </c>
       <c r="AF3" t="n">
         <v>1.191873015725052e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>250848.9700070453</v>
+        <v>355951.9323713564</v>
       </c>
     </row>
   </sheetData>
@@ -12104,28 +12104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.2531629262909</v>
+        <v>441.7265564882937</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.9750413868377</v>
+        <v>604.3897621875907</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.9388269106378</v>
+        <v>546.7076515507651</v>
       </c>
       <c r="AD2" t="n">
-        <v>314253.1629262909</v>
+        <v>441726.5564882937</v>
       </c>
       <c r="AE2" t="n">
-        <v>429975.0413868377</v>
+        <v>604389.7621875907</v>
       </c>
       <c r="AF2" t="n">
         <v>6.088616461723547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>388938.8269106378</v>
+        <v>546707.6515507651</v>
       </c>
     </row>
     <row r="3">
@@ -12210,28 +12210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.3945561625657</v>
+        <v>404.0544975100695</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.8576665777195</v>
+        <v>552.8451891196385</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.4593208552304</v>
+        <v>500.0824201931557</v>
       </c>
       <c r="AD3" t="n">
-        <v>286394.5561625657</v>
+        <v>404054.4975100695</v>
       </c>
       <c r="AE3" t="n">
-        <v>391857.6665777195</v>
+        <v>552845.1891196384</v>
       </c>
       <c r="AF3" t="n">
         <v>6.640090957950936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>354459.3208552304</v>
+        <v>500082.4201931556</v>
       </c>
     </row>
     <row r="4">
@@ -12316,28 +12316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.8510445017421</v>
+        <v>379.5441402381693</v>
       </c>
       <c r="AB4" t="n">
-        <v>358.276151140065</v>
+        <v>519.3090369795777</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.0827781189927</v>
+        <v>469.7469113450572</v>
       </c>
       <c r="AD4" t="n">
-        <v>261851.0445017421</v>
+        <v>379544.1402381693</v>
       </c>
       <c r="AE4" t="n">
-        <v>358276.151140065</v>
+        <v>519309.0369795777</v>
       </c>
       <c r="AF4" t="n">
         <v>7.02769503218534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>324082.7781189927</v>
+        <v>469746.9113450572</v>
       </c>
     </row>
     <row r="5">
@@ -12422,28 +12422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.9098183306136</v>
+        <v>357.0111860866809</v>
       </c>
       <c r="AB5" t="n">
-        <v>354.2518357349863</v>
+        <v>488.4784550257328</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.4425377280126</v>
+        <v>441.8587568618937</v>
       </c>
       <c r="AD5" t="n">
-        <v>258909.8183306136</v>
+        <v>357011.1860866809</v>
       </c>
       <c r="AE5" t="n">
-        <v>354251.8357349863</v>
+        <v>488478.4550257329</v>
       </c>
       <c r="AF5" t="n">
         <v>7.290667761312201e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>320442.5377280126</v>
+        <v>441858.7568618937</v>
       </c>
     </row>
     <row r="6">
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.2979573535405</v>
+        <v>344.3651596908299</v>
       </c>
       <c r="AB6" t="n">
-        <v>336.9957311499581</v>
+        <v>471.17560380762</v>
       </c>
       <c r="AC6" t="n">
-        <v>304.8333315455857</v>
+        <v>426.2072654793332</v>
       </c>
       <c r="AD6" t="n">
-        <v>246297.9573535405</v>
+        <v>344365.1596908299</v>
       </c>
       <c r="AE6" t="n">
-        <v>336995.7311499581</v>
+        <v>471175.6038076199</v>
       </c>
       <c r="AF6" t="n">
         <v>7.53201172215582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>304833.3315455857</v>
+        <v>426207.2654793332</v>
       </c>
     </row>
     <row r="7">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.0850962978747</v>
+        <v>341.9647398198059</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.2855558602009</v>
+        <v>467.8912434410342</v>
       </c>
       <c r="AC7" t="n">
-        <v>289.7179519325993</v>
+        <v>423.2363598565057</v>
       </c>
       <c r="AD7" t="n">
-        <v>234085.0962978748</v>
+        <v>341964.7398198059</v>
       </c>
       <c r="AE7" t="n">
-        <v>320285.555860201</v>
+        <v>467891.2434410342</v>
       </c>
       <c r="AF7" t="n">
         <v>7.735771265982659e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>289717.9519325993</v>
+        <v>423236.3598565057</v>
       </c>
     </row>
     <row r="8">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.4269996872293</v>
+        <v>331.561521832223</v>
       </c>
       <c r="AB8" t="n">
-        <v>319.3851190443429</v>
+        <v>453.6571016328372</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.9034515426754</v>
+        <v>410.3607045647395</v>
       </c>
       <c r="AD8" t="n">
-        <v>233426.9996872293</v>
+        <v>331561.521832223</v>
       </c>
       <c r="AE8" t="n">
-        <v>319385.1190443429</v>
+        <v>453657.1016328371</v>
       </c>
       <c r="AF8" t="n">
         <v>7.80934453514287e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>288903.4515426754</v>
+        <v>410360.7045647395</v>
       </c>
     </row>
     <row r="9">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>232.3335068079938</v>
+        <v>330.4680289529875</v>
       </c>
       <c r="AB9" t="n">
-        <v>317.8889538454725</v>
+        <v>452.160936433966</v>
       </c>
       <c r="AC9" t="n">
-        <v>287.5500782505038</v>
+        <v>409.0073312725676</v>
       </c>
       <c r="AD9" t="n">
-        <v>232333.5068079938</v>
+        <v>330468.0289529875</v>
       </c>
       <c r="AE9" t="n">
-        <v>317888.9538454725</v>
+        <v>452160.936433966</v>
       </c>
       <c r="AF9" t="n">
         <v>7.875530929889405e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH9" t="n">
-        <v>287550.0782505037</v>
+        <v>409007.3312725676</v>
       </c>
     </row>
     <row r="10">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>230.9812274342288</v>
+        <v>329.0142643527373</v>
       </c>
       <c r="AB10" t="n">
-        <v>316.0387055479327</v>
+        <v>450.171831572336</v>
       </c>
       <c r="AC10" t="n">
-        <v>285.8764150536408</v>
+        <v>407.2080637872053</v>
       </c>
       <c r="AD10" t="n">
-        <v>230981.2274342288</v>
+        <v>329014.2643527373</v>
       </c>
       <c r="AE10" t="n">
-        <v>316038.7055479327</v>
+        <v>450171.831572336</v>
       </c>
       <c r="AF10" t="n">
         <v>8.006544534490362e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH10" t="n">
-        <v>285876.4150536408</v>
+        <v>407208.0637872053</v>
       </c>
     </row>
     <row r="11">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>229.9024039677968</v>
+        <v>318.1903195093677</v>
       </c>
       <c r="AB11" t="n">
-        <v>314.5626116868289</v>
+        <v>435.3620327188929</v>
       </c>
       <c r="AC11" t="n">
-        <v>284.5411975189294</v>
+        <v>393.8116913506516</v>
       </c>
       <c r="AD11" t="n">
-        <v>229902.4039677968</v>
+        <v>318190.3195093677</v>
       </c>
       <c r="AE11" t="n">
-        <v>314562.6116868288</v>
+        <v>435362.0327188929</v>
       </c>
       <c r="AF11" t="n">
         <v>8.072790024232208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH11" t="n">
-        <v>284541.1975189294</v>
+        <v>393811.6913506516</v>
       </c>
     </row>
     <row r="12">
@@ -13164,28 +13164,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>219.1873065845769</v>
+        <v>317.2876633107896</v>
       </c>
       <c r="AB12" t="n">
-        <v>299.9017427303809</v>
+        <v>434.1269786856173</v>
       </c>
       <c r="AC12" t="n">
-        <v>271.2795413190213</v>
+        <v>392.6945091409026</v>
       </c>
       <c r="AD12" t="n">
-        <v>219187.3065845769</v>
+        <v>317287.6633107896</v>
       </c>
       <c r="AE12" t="n">
-        <v>299901.7427303809</v>
+        <v>434126.9786856173</v>
       </c>
       <c r="AF12" t="n">
         <v>8.130762214630737e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>271279.5413190214</v>
+        <v>392694.5091409026</v>
       </c>
     </row>
     <row r="13">
@@ -13270,28 +13270,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>219.1381928310453</v>
+        <v>317.238549557258</v>
       </c>
       <c r="AB13" t="n">
-        <v>299.8345431260531</v>
+        <v>434.0597790812896</v>
       </c>
       <c r="AC13" t="n">
-        <v>271.2187551506154</v>
+        <v>392.6337229724966</v>
       </c>
       <c r="AD13" t="n">
-        <v>219138.1928310453</v>
+        <v>317238.549557258</v>
       </c>
       <c r="AE13" t="n">
-        <v>299834.5431260531</v>
+        <v>434059.7790812896</v>
       </c>
       <c r="AF13" t="n">
         <v>8.127984749851194e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>271218.7551506154</v>
+        <v>392633.7229724966</v>
       </c>
     </row>
   </sheetData>
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.5266637581371</v>
+        <v>327.5627603609224</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.4707985372847</v>
+        <v>448.1858197748982</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.4125328524258</v>
+        <v>405.4115941683299</v>
       </c>
       <c r="AD2" t="n">
-        <v>222526.6637581371</v>
+        <v>327562.7603609224</v>
       </c>
       <c r="AE2" t="n">
-        <v>304470.7985372847</v>
+        <v>448185.8197748982</v>
       </c>
       <c r="AF2" t="n">
         <v>9.714245220307812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>275412.5328524258</v>
+        <v>405411.59416833</v>
       </c>
     </row>
     <row r="3">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.2154583172052</v>
+        <v>304.7307723896488</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.2578200040727</v>
+        <v>416.9460865563825</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.9377754283419</v>
+        <v>377.1533372429485</v>
       </c>
       <c r="AD3" t="n">
-        <v>209215.4583172052</v>
+        <v>304730.7723896488</v>
       </c>
       <c r="AE3" t="n">
-        <v>286257.8200040727</v>
+        <v>416946.0865563825</v>
       </c>
       <c r="AF3" t="n">
         <v>1.028450823003106e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>258937.7754283418</v>
+        <v>377153.3372429485</v>
       </c>
     </row>
     <row r="4">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.7228438183508</v>
+        <v>292.6500555527486</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.8473148803512</v>
+        <v>400.4167168165236</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.8527641269533</v>
+        <v>362.2015073519455</v>
       </c>
       <c r="AD4" t="n">
-        <v>206722.8438183508</v>
+        <v>292650.0555527486</v>
       </c>
       <c r="AE4" t="n">
-        <v>282847.3148803512</v>
+        <v>400416.7168165236</v>
       </c>
       <c r="AF4" t="n">
         <v>1.067532354201933e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>255852.7641269533</v>
+        <v>362201.5073519455</v>
       </c>
     </row>
     <row r="5">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.0374262653693</v>
+        <v>292.9646379997671</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.2777404627598</v>
+        <v>400.8471423989323</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.242110495883</v>
+        <v>362.5908537208753</v>
       </c>
       <c r="AD5" t="n">
-        <v>207037.4262653693</v>
+        <v>292964.6379997671</v>
       </c>
       <c r="AE5" t="n">
-        <v>283277.7404627597</v>
+        <v>400847.1423989323</v>
       </c>
       <c r="AF5" t="n">
         <v>1.058674762518439e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>256242.110495883</v>
+        <v>362590.8537208753</v>
       </c>
     </row>
   </sheetData>
@@ -14182,28 +14182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.0581598206667</v>
+        <v>542.1888450969687</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.1170735999533</v>
+        <v>741.8466975453524</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.0960756985058</v>
+        <v>671.0458899200027</v>
       </c>
       <c r="AD2" t="n">
-        <v>383058.1598206667</v>
+        <v>542188.8450969687</v>
       </c>
       <c r="AE2" t="n">
-        <v>524117.0735999533</v>
+        <v>741846.6975453524</v>
       </c>
       <c r="AF2" t="n">
         <v>4.668590623064139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>474096.0756985059</v>
+        <v>671045.8899200027</v>
       </c>
     </row>
     <row r="3">
@@ -14288,28 +14288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.8286093227514</v>
+        <v>479.0935830036013</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.9684954555379</v>
+        <v>655.516976382698</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.5925548366426</v>
+        <v>592.9553561805873</v>
       </c>
       <c r="AD3" t="n">
-        <v>339828.6093227514</v>
+        <v>479093.5830036014</v>
       </c>
       <c r="AE3" t="n">
-        <v>464968.4954555379</v>
+        <v>655516.9763826979</v>
       </c>
       <c r="AF3" t="n">
         <v>5.1866584055755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>420592.5548366426</v>
+        <v>592955.3561805873</v>
       </c>
     </row>
     <row r="4">
@@ -14394,28 +14394,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.8181605261262</v>
+        <v>441.1331956998595</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.6433636782079</v>
+        <v>603.5778997796248</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.9251198464807</v>
+        <v>545.9732721515594</v>
       </c>
       <c r="AD4" t="n">
-        <v>311818.1605261262</v>
+        <v>441133.1956998595</v>
       </c>
       <c r="AE4" t="n">
-        <v>426643.363678208</v>
+        <v>603577.8997796248</v>
       </c>
       <c r="AF4" t="n">
         <v>5.577318465032634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>385925.1198464807</v>
+        <v>545973.2721515594</v>
       </c>
     </row>
     <row r="5">
@@ -14500,28 +14500,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>297.1753607184796</v>
+        <v>426.4562304734322</v>
       </c>
       <c r="AB5" t="n">
-        <v>406.6084389866504</v>
+        <v>583.4962284548193</v>
       </c>
       <c r="AC5" t="n">
-        <v>367.8023002482921</v>
+        <v>527.8081673531907</v>
       </c>
       <c r="AD5" t="n">
-        <v>297175.3607184796</v>
+        <v>426456.2304734322</v>
       </c>
       <c r="AE5" t="n">
-        <v>406608.4389866504</v>
+        <v>583496.2284548193</v>
       </c>
       <c r="AF5" t="n">
         <v>5.838328083762331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>367802.300248292</v>
+        <v>527808.1673531907</v>
       </c>
     </row>
     <row r="6">
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.2938813365473</v>
+        <v>402.6589780031642</v>
       </c>
       <c r="AB6" t="n">
-        <v>387.615186488642</v>
+        <v>550.9357777643153</v>
       </c>
       <c r="AC6" t="n">
-        <v>350.6217371114963</v>
+        <v>498.3552403777089</v>
       </c>
       <c r="AD6" t="n">
-        <v>283293.8813365473</v>
+        <v>402658.9780031642</v>
       </c>
       <c r="AE6" t="n">
-        <v>387615.186488642</v>
+        <v>550935.7777643153</v>
       </c>
       <c r="AF6" t="n">
         <v>6.079260039512823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>350621.7371114963</v>
+        <v>498355.2403777089</v>
       </c>
     </row>
     <row r="7">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>280.2023315216282</v>
+        <v>389.584335292205</v>
       </c>
       <c r="AB7" t="n">
-        <v>383.3851916423177</v>
+        <v>533.0464747946537</v>
       </c>
       <c r="AC7" t="n">
-        <v>346.7954470364701</v>
+        <v>482.1732673756774</v>
       </c>
       <c r="AD7" t="n">
-        <v>280202.3315216282</v>
+        <v>389584.335292205</v>
       </c>
       <c r="AE7" t="n">
-        <v>383385.1916423177</v>
+        <v>533046.4747946537</v>
       </c>
       <c r="AF7" t="n">
         <v>6.28788618116113e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>346795.4470364701</v>
+        <v>482173.2673756774</v>
       </c>
     </row>
     <row r="8">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>268.2536578505876</v>
+        <v>377.7029814288688</v>
       </c>
       <c r="AB8" t="n">
-        <v>367.0364891873211</v>
+        <v>516.7898822704988</v>
       </c>
       <c r="AC8" t="n">
-        <v>332.0070417982304</v>
+        <v>467.4681812257569</v>
       </c>
       <c r="AD8" t="n">
-        <v>268253.6578505876</v>
+        <v>377702.9814288688</v>
       </c>
       <c r="AE8" t="n">
-        <v>367036.4891873212</v>
+        <v>516789.8822704988</v>
       </c>
       <c r="AF8" t="n">
         <v>6.404988082526562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH8" t="n">
-        <v>332007.0417982304</v>
+        <v>467468.1812257569</v>
       </c>
     </row>
     <row r="9">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.7000790864148</v>
+        <v>365.166309768656</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.5425700662358</v>
+        <v>499.6366550260763</v>
       </c>
       <c r="AC9" t="n">
-        <v>328.8465774143152</v>
+        <v>451.9520339148364</v>
       </c>
       <c r="AD9" t="n">
-        <v>265700.0790864148</v>
+        <v>365166.309768656</v>
       </c>
       <c r="AE9" t="n">
-        <v>363542.5700662358</v>
+        <v>499636.6550260763</v>
       </c>
       <c r="AF9" t="n">
         <v>6.588303553291507e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>328846.5774143151</v>
+        <v>451952.0339148364</v>
       </c>
     </row>
     <row r="10">
@@ -15030,28 +15030,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>265.9401359355218</v>
+        <v>365.406366617763</v>
       </c>
       <c r="AB10" t="n">
-        <v>363.8710264377446</v>
+        <v>499.9651113975851</v>
       </c>
       <c r="AC10" t="n">
-        <v>329.1436863707186</v>
+        <v>452.2491428712398</v>
       </c>
       <c r="AD10" t="n">
-        <v>265940.1359355217</v>
+        <v>365406.3666177629</v>
       </c>
       <c r="AE10" t="n">
-        <v>363871.0264377446</v>
+        <v>499965.1113975851</v>
       </c>
       <c r="AF10" t="n">
         <v>6.588944329769567e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>329143.6863707186</v>
+        <v>452249.1428712398</v>
       </c>
     </row>
     <row r="11">
@@ -15136,28 +15136,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.9564224978431</v>
+        <v>363.3715806573468</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.4743810280244</v>
+        <v>497.1810274781228</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.3119137861701</v>
+        <v>449.7307680135646</v>
       </c>
       <c r="AD11" t="n">
-        <v>253956.4224978431</v>
+        <v>363371.5806573468</v>
       </c>
       <c r="AE11" t="n">
-        <v>347474.3810280244</v>
+        <v>497181.0274781227</v>
       </c>
       <c r="AF11" t="n">
         <v>6.725216127436954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>314311.9137861701</v>
+        <v>449730.7680135646</v>
       </c>
     </row>
     <row r="12">
@@ -15242,28 +15242,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>252.9884702481272</v>
+        <v>362.3021431811456</v>
       </c>
       <c r="AB12" t="n">
-        <v>346.1499860569243</v>
+        <v>495.7177759429327</v>
       </c>
       <c r="AC12" t="n">
-        <v>313.1139172123114</v>
+        <v>448.4071671512066</v>
       </c>
       <c r="AD12" t="n">
-        <v>252988.4702481272</v>
+        <v>362302.1431811456</v>
       </c>
       <c r="AE12" t="n">
-        <v>346149.9860569243</v>
+        <v>495717.7759429327</v>
       </c>
       <c r="AF12" t="n">
         <v>6.788386008565683e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>313113.9172123114</v>
+        <v>448407.1671512066</v>
       </c>
     </row>
     <row r="13">
@@ -15348,28 +15348,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>252.0574058996476</v>
+        <v>351.4894711631111</v>
       </c>
       <c r="AB13" t="n">
-        <v>344.876062739675</v>
+        <v>480.923401066435</v>
       </c>
       <c r="AC13" t="n">
-        <v>311.9615753484975</v>
+        <v>435.0247466488864</v>
       </c>
       <c r="AD13" t="n">
-        <v>252057.4058996477</v>
+        <v>351489.4711631112</v>
       </c>
       <c r="AE13" t="n">
-        <v>344876.062739675</v>
+        <v>480923.401066435</v>
       </c>
       <c r="AF13" t="n">
         <v>6.846856862188643e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>311961.5753484975</v>
+        <v>435024.7466488864</v>
       </c>
     </row>
     <row r="14">
@@ -15454,28 +15454,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>250.959629309992</v>
+        <v>350.3916945734555</v>
       </c>
       <c r="AB14" t="n">
-        <v>343.374036379224</v>
+        <v>479.4213747059831</v>
       </c>
       <c r="AC14" t="n">
-        <v>310.6029002757801</v>
+        <v>433.6660715761687</v>
       </c>
       <c r="AD14" t="n">
-        <v>250959.629309992</v>
+        <v>350391.6945734555</v>
       </c>
       <c r="AE14" t="n">
-        <v>343374.036379224</v>
+        <v>479421.3747059831</v>
       </c>
       <c r="AF14" t="n">
         <v>6.915366547301205e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>310602.9002757801</v>
+        <v>433666.0715761688</v>
       </c>
     </row>
     <row r="15">
@@ -15560,28 +15560,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>239.784246734337</v>
+        <v>349.1652394750596</v>
       </c>
       <c r="AB15" t="n">
-        <v>328.083384916137</v>
+        <v>477.7432847329775</v>
       </c>
       <c r="AC15" t="n">
-        <v>296.7715671277612</v>
+        <v>432.1481361549728</v>
       </c>
       <c r="AD15" t="n">
-        <v>239784.2467343369</v>
+        <v>349165.2394750596</v>
       </c>
       <c r="AE15" t="n">
-        <v>328083.384916137</v>
+        <v>477743.2847329775</v>
       </c>
       <c r="AF15" t="n">
         <v>6.988254871680508e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>296771.5671277611</v>
+        <v>432148.1361549728</v>
       </c>
     </row>
     <row r="16">
@@ -15666,28 +15666,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>238.4495880321238</v>
+        <v>337.9489731032915</v>
       </c>
       <c r="AB16" t="n">
-        <v>326.2572459987834</v>
+        <v>462.3966942563753</v>
       </c>
       <c r="AC16" t="n">
-        <v>295.1197123456772</v>
+        <v>418.2662027343824</v>
       </c>
       <c r="AD16" t="n">
-        <v>238449.5880321237</v>
+        <v>337948.9731032915</v>
       </c>
       <c r="AE16" t="n">
-        <v>326257.2459987834</v>
+        <v>462396.6942563753</v>
       </c>
       <c r="AF16" t="n">
         <v>7.072837366784404e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>295119.7123456772</v>
+        <v>418266.2027343824</v>
       </c>
     </row>
     <row r="17">
@@ -15772,28 +15772,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>238.7464529293226</v>
+        <v>348.1274456700453</v>
       </c>
       <c r="AB17" t="n">
-        <v>326.6634296478857</v>
+        <v>476.3233294647255</v>
       </c>
       <c r="AC17" t="n">
-        <v>295.4871303973916</v>
+        <v>430.863699424603</v>
       </c>
       <c r="AD17" t="n">
-        <v>238746.4529293226</v>
+        <v>348127.4456700453</v>
       </c>
       <c r="AE17" t="n">
-        <v>326663.4296478857</v>
+        <v>476323.3294647255</v>
       </c>
       <c r="AF17" t="n">
         <v>7.014526707280962e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>295487.1303973916</v>
+        <v>430863.699424603</v>
       </c>
     </row>
     <row r="18">
@@ -15878,28 +15878,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>237.6355885104718</v>
+        <v>337.1349735816395</v>
       </c>
       <c r="AB18" t="n">
-        <v>325.1434959421354</v>
+        <v>461.2829441997266</v>
       </c>
       <c r="AC18" t="n">
-        <v>294.1122570312772</v>
+        <v>417.2587474199823</v>
       </c>
       <c r="AD18" t="n">
-        <v>237635.5885104718</v>
+        <v>337134.9735816395</v>
       </c>
       <c r="AE18" t="n">
-        <v>325143.4959421353</v>
+        <v>461282.9441997266</v>
       </c>
       <c r="AF18" t="n">
         <v>7.097934445508414e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>294112.2570312772</v>
+        <v>417258.7474199823</v>
       </c>
     </row>
     <row r="19">
@@ -15984,28 +15984,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>237.2549666519107</v>
+        <v>336.7543517230784</v>
       </c>
       <c r="AB19" t="n">
-        <v>324.6227123234011</v>
+        <v>460.762160580992</v>
       </c>
       <c r="AC19" t="n">
-        <v>293.6411762701903</v>
+        <v>416.7876666588953</v>
       </c>
       <c r="AD19" t="n">
-        <v>237254.9666519107</v>
+        <v>336754.3517230784</v>
       </c>
       <c r="AE19" t="n">
-        <v>324622.7123234011</v>
+        <v>460762.160580992</v>
       </c>
       <c r="AF19" t="n">
         <v>7.107866480918341e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>293641.1762701903</v>
+        <v>416787.6666588953</v>
       </c>
     </row>
     <row r="20">
@@ -16090,28 +16090,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>237.1606837192232</v>
+        <v>336.6600687903909</v>
       </c>
       <c r="AB20" t="n">
-        <v>324.4937102554287</v>
+        <v>460.6331585130195</v>
       </c>
       <c r="AC20" t="n">
-        <v>293.5244859785296</v>
+        <v>416.6709763672346</v>
       </c>
       <c r="AD20" t="n">
-        <v>237160.6837192232</v>
+        <v>336660.0687903909</v>
       </c>
       <c r="AE20" t="n">
-        <v>324493.7102554286</v>
+        <v>460633.1585130195</v>
       </c>
       <c r="AF20" t="n">
         <v>7.097934445508414e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>293524.4859785296</v>
+        <v>416670.9763672346</v>
       </c>
     </row>
   </sheetData>
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.0563668582793</v>
+        <v>371.4750877017642</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.6618145971215</v>
+        <v>508.2686033177941</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.049880011025</v>
+        <v>459.7601611766082</v>
       </c>
       <c r="AD2" t="n">
-        <v>265056.3668582793</v>
+        <v>371475.0877017641</v>
       </c>
       <c r="AE2" t="n">
-        <v>362661.8145971215</v>
+        <v>508268.6033177942</v>
       </c>
       <c r="AF2" t="n">
         <v>7.804506388693979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>328049.880011025</v>
+        <v>459760.1611766082</v>
       </c>
     </row>
     <row r="3">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.7870795505808</v>
+        <v>347.2389547829923</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.4555050171825</v>
+        <v>475.1076570356082</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.012734012146</v>
+        <v>429.7640490659135</v>
       </c>
       <c r="AD3" t="n">
-        <v>240787.0795505808</v>
+        <v>347238.9547829923</v>
       </c>
       <c r="AE3" t="n">
-        <v>329455.5050171825</v>
+        <v>475107.6570356081</v>
       </c>
       <c r="AF3" t="n">
         <v>8.323039462910485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>298012.734012146</v>
+        <v>429764.0490659135</v>
       </c>
     </row>
     <row r="4">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.0541727212526</v>
+        <v>324.8596642223366</v>
       </c>
       <c r="AB4" t="n">
-        <v>312.0337801571004</v>
+        <v>444.4873243858999</v>
       </c>
       <c r="AC4" t="n">
-        <v>282.2537141211602</v>
+        <v>402.0660779883868</v>
       </c>
       <c r="AD4" t="n">
-        <v>228054.1727212526</v>
+        <v>324859.6642223366</v>
       </c>
       <c r="AE4" t="n">
-        <v>312033.7801571004</v>
+        <v>444487.3243858999</v>
       </c>
       <c r="AF4" t="n">
         <v>8.673278450213531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>282253.7141211602</v>
+        <v>402066.0779883868</v>
       </c>
     </row>
     <row r="5">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.0044039601259</v>
+        <v>311.7757300424288</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.1785108229699</v>
+        <v>426.5853084185125</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.1025266322455</v>
+        <v>385.8726052992895</v>
       </c>
       <c r="AD5" t="n">
-        <v>215004.4039601259</v>
+        <v>311775.7300424288</v>
       </c>
       <c r="AE5" t="n">
-        <v>294178.51082297</v>
+        <v>426585.3084185125</v>
       </c>
       <c r="AF5" t="n">
         <v>9.05952393103333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>266102.5266322455</v>
+        <v>385872.6052992896</v>
       </c>
     </row>
     <row r="6">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.674585647166</v>
+        <v>311.445911729469</v>
       </c>
       <c r="AB6" t="n">
-        <v>293.7272388566215</v>
+        <v>426.1340364521639</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.694323429001</v>
+        <v>385.464402096045</v>
       </c>
       <c r="AD6" t="n">
-        <v>214674.585647166</v>
+        <v>311445.911729469</v>
       </c>
       <c r="AE6" t="n">
-        <v>293727.2388566215</v>
+        <v>426134.0364521639</v>
       </c>
       <c r="AF6" t="n">
         <v>9.078977988885788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>265694.323429001</v>
+        <v>385464.402096045</v>
       </c>
     </row>
     <row r="7">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>212.6784011208513</v>
+        <v>299.7360236641225</v>
       </c>
       <c r="AB7" t="n">
-        <v>290.995971122273</v>
+        <v>410.1120509973554</v>
       </c>
       <c r="AC7" t="n">
-        <v>263.2237240538596</v>
+        <v>370.9715324460457</v>
       </c>
       <c r="AD7" t="n">
-        <v>212678.4011208513</v>
+        <v>299736.0236641225</v>
       </c>
       <c r="AE7" t="n">
-        <v>290995.971122273</v>
+        <v>410112.0509973554</v>
       </c>
       <c r="AF7" t="n">
         <v>9.304183438262536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>263223.7240538596</v>
+        <v>370971.5324460457</v>
       </c>
     </row>
     <row r="8">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.5041065516302</v>
+        <v>309.1739474074479</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.7574936033312</v>
+        <v>423.0254346347828</v>
       </c>
       <c r="AC8" t="n">
-        <v>263.0080064946202</v>
+        <v>382.6524808731647</v>
       </c>
       <c r="AD8" t="n">
-        <v>212504.1065516302</v>
+        <v>309173.947407448</v>
       </c>
       <c r="AE8" t="n">
-        <v>290757.4936033312</v>
+        <v>423025.4346347828</v>
       </c>
       <c r="AF8" t="n">
         <v>9.291060192456979e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>263008.0064946202</v>
+        <v>382652.4808731647</v>
       </c>
     </row>
   </sheetData>
@@ -17320,28 +17320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.8758922956782</v>
+        <v>470.8994803820401</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.4554812868691</v>
+        <v>644.3054436775836</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.9874493886323</v>
+        <v>582.8138364213638</v>
       </c>
       <c r="AD2" t="n">
-        <v>332875.8922956782</v>
+        <v>470899.4803820401</v>
       </c>
       <c r="AE2" t="n">
-        <v>455455.4812868692</v>
+        <v>644305.4436775836</v>
       </c>
       <c r="AF2" t="n">
         <v>5.565331053592309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>411987.4493886323</v>
+        <v>582813.8364213639</v>
       </c>
     </row>
     <row r="3">
@@ -17426,28 +17426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.4424165983781</v>
+        <v>421.710314080796</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.1833013245199</v>
+        <v>577.0026562713603</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.5587897595301</v>
+        <v>521.9343325851353</v>
       </c>
       <c r="AD3" t="n">
-        <v>303442.4165983781</v>
+        <v>421710.314080796</v>
       </c>
       <c r="AE3" t="n">
-        <v>415183.3013245199</v>
+        <v>577002.6562713602</v>
       </c>
       <c r="AF3" t="n">
         <v>6.111860964009977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>375558.7897595301</v>
+        <v>521934.3325851352</v>
       </c>
     </row>
     <row r="4">
@@ -17532,28 +17532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.2034032136572</v>
+        <v>396.5044550849987</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.6501697448588</v>
+        <v>542.5148879892929</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.3214517902772</v>
+        <v>490.7380285040215</v>
       </c>
       <c r="AD4" t="n">
-        <v>278203.4032136571</v>
+        <v>396504.4550849986</v>
       </c>
       <c r="AE4" t="n">
-        <v>380650.1697448588</v>
+        <v>542514.8879892929</v>
       </c>
       <c r="AF4" t="n">
         <v>6.475416716384959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>344321.4517902772</v>
+        <v>490738.0285040215</v>
       </c>
     </row>
     <row r="5">
@@ -17638,28 +17638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.4133368285021</v>
+        <v>382.6802232810627</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.7819925418975</v>
+        <v>523.5999641530839</v>
       </c>
       <c r="AC5" t="n">
-        <v>327.2540269379136</v>
+        <v>473.6283184514779</v>
       </c>
       <c r="AD5" t="n">
-        <v>264413.3368285021</v>
+        <v>382680.2232810627</v>
       </c>
       <c r="AE5" t="n">
-        <v>361781.9925418975</v>
+        <v>523599.9641530839</v>
       </c>
       <c r="AF5" t="n">
         <v>6.771581924250444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>327254.0269379136</v>
+        <v>473628.3184514779</v>
       </c>
     </row>
     <row r="6">
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>261.7287255354428</v>
+        <v>370.1011894915697</v>
       </c>
       <c r="AB6" t="n">
-        <v>358.1087889340425</v>
+        <v>506.3887751744949</v>
       </c>
       <c r="AC6" t="n">
-        <v>323.9313887270187</v>
+        <v>458.0597411929501</v>
       </c>
       <c r="AD6" t="n">
-        <v>261728.7255354428</v>
+        <v>370101.1894915697</v>
       </c>
       <c r="AE6" t="n">
-        <v>358108.7889340426</v>
+        <v>506388.7751744949</v>
       </c>
       <c r="AF6" t="n">
         <v>6.990843298567476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>323931.3887270187</v>
+        <v>458059.7411929501</v>
       </c>
     </row>
     <row r="7">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.1843450017718</v>
+        <v>357.6241287656062</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.9450140687021</v>
+        <v>489.3171102401612</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.4057004454194</v>
+        <v>442.617371999717</v>
       </c>
       <c r="AD7" t="n">
-        <v>249184.3450017718</v>
+        <v>357624.1287656062</v>
       </c>
       <c r="AE7" t="n">
-        <v>340945.0140687021</v>
+        <v>489317.1102401612</v>
       </c>
       <c r="AF7" t="n">
         <v>7.194154248148533e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>308405.7004454194</v>
+        <v>442617.371999717</v>
       </c>
     </row>
     <row r="8">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.0928379951828</v>
+        <v>357.5326217590172</v>
       </c>
       <c r="AB8" t="n">
-        <v>340.819810145283</v>
+        <v>489.191906316742</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.2924458087266</v>
+        <v>442.5041173630241</v>
       </c>
       <c r="AD8" t="n">
-        <v>249092.8379951828</v>
+        <v>357532.6217590172</v>
       </c>
       <c r="AE8" t="n">
-        <v>340819.810145283</v>
+        <v>489191.906316742</v>
       </c>
       <c r="AF8" t="n">
         <v>7.226852618857282e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>308292.4458087266</v>
+        <v>442504.1173630241</v>
       </c>
     </row>
     <row r="9">
@@ -18062,28 +18062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>247.0840358640411</v>
+        <v>345.6293971314417</v>
       </c>
       <c r="AB9" t="n">
-        <v>338.0712784473608</v>
+        <v>472.9053892480846</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.8062301184648</v>
+        <v>427.771962625129</v>
       </c>
       <c r="AD9" t="n">
-        <v>247084.0358640411</v>
+        <v>345629.3971314417</v>
       </c>
       <c r="AE9" t="n">
-        <v>338071.2784473608</v>
+        <v>472905.3892480846</v>
       </c>
       <c r="AF9" t="n">
         <v>7.380603320151559e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>305806.2301184648</v>
+        <v>427771.962625129</v>
       </c>
     </row>
     <row r="10">
@@ -18168,28 +18168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>235.4805230103135</v>
+        <v>334.0932040854184</v>
       </c>
       <c r="AB10" t="n">
-        <v>322.1948402500405</v>
+        <v>457.1210609815976</v>
       </c>
       <c r="AC10" t="n">
-        <v>291.4450168999707</v>
+        <v>413.4940684949518</v>
       </c>
       <c r="AD10" t="n">
-        <v>235480.5230103135</v>
+        <v>334093.2040854184</v>
       </c>
       <c r="AE10" t="n">
-        <v>322194.8402500405</v>
+        <v>457121.0609815976</v>
       </c>
       <c r="AF10" t="n">
         <v>7.516922485841519e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>291445.0168999707</v>
+        <v>413494.0684949518</v>
       </c>
     </row>
     <row r="11">
@@ -18274,28 +18274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>234.6430899084565</v>
+        <v>333.2557709835614</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.0490273351392</v>
+        <v>455.9752480666957</v>
       </c>
       <c r="AC11" t="n">
-        <v>290.4085587615087</v>
+        <v>412.4576103564896</v>
       </c>
       <c r="AD11" t="n">
-        <v>234643.0899084565</v>
+        <v>333255.7709835613</v>
       </c>
       <c r="AE11" t="n">
-        <v>321049.0273351392</v>
+        <v>455975.2480666957</v>
       </c>
       <c r="AF11" t="n">
         <v>7.574970638719944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>290408.5587615087</v>
+        <v>412457.6103564896</v>
       </c>
     </row>
     <row r="12">
@@ -18380,28 +18380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>233.5647470285758</v>
+        <v>332.0759428771954</v>
       </c>
       <c r="AB12" t="n">
-        <v>319.5735910337569</v>
+        <v>454.3609552012232</v>
       </c>
       <c r="AC12" t="n">
-        <v>289.0739360299419</v>
+        <v>410.9973833364236</v>
       </c>
       <c r="AD12" t="n">
-        <v>233564.7470285758</v>
+        <v>332075.9428771954</v>
       </c>
       <c r="AE12" t="n">
-        <v>319573.5910337569</v>
+        <v>454360.9552012233</v>
       </c>
       <c r="AF12" t="n">
         <v>7.643842294097781e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>289073.9360299419</v>
+        <v>410997.3833364237</v>
       </c>
     </row>
     <row r="13">
@@ -18486,28 +18486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>232.3148605416494</v>
+        <v>330.8260563902689</v>
       </c>
       <c r="AB13" t="n">
-        <v>317.8634412012449</v>
+        <v>452.6508053687105</v>
       </c>
       <c r="AC13" t="n">
-        <v>287.527000497234</v>
+        <v>409.4504478037154</v>
       </c>
       <c r="AD13" t="n">
-        <v>232314.8605416494</v>
+        <v>330826.056390269</v>
       </c>
       <c r="AE13" t="n">
-        <v>317863.4412012449</v>
+        <v>452650.8053687104</v>
       </c>
       <c r="AF13" t="n">
         <v>7.721828477896175e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH13" t="n">
-        <v>287527.000497234</v>
+        <v>409450.4478037154</v>
       </c>
     </row>
     <row r="14">
@@ -18592,28 +18592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>221.2164193611071</v>
+        <v>319.794935017431</v>
       </c>
       <c r="AB14" t="n">
-        <v>302.678064349366</v>
+        <v>437.5575384476653</v>
       </c>
       <c r="AC14" t="n">
-        <v>273.7908946992833</v>
+        <v>395.7976610940815</v>
       </c>
       <c r="AD14" t="n">
-        <v>221216.4193611071</v>
+        <v>319794.935017431</v>
       </c>
       <c r="AE14" t="n">
-        <v>302678.0643493659</v>
+        <v>437557.5384476652</v>
       </c>
       <c r="AF14" t="n">
         <v>7.823797264601158e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>273790.8946992833</v>
+        <v>395797.6610940815</v>
       </c>
     </row>
     <row r="15">
@@ -18698,28 +18698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>221.1675110496579</v>
+        <v>319.7460267059818</v>
       </c>
       <c r="AB15" t="n">
-        <v>302.6111458399588</v>
+        <v>437.4906199382581</v>
       </c>
       <c r="AC15" t="n">
-        <v>273.7303627984932</v>
+        <v>395.7371291932915</v>
       </c>
       <c r="AD15" t="n">
-        <v>221167.5110496579</v>
+        <v>319746.0267059818</v>
       </c>
       <c r="AE15" t="n">
-        <v>302611.1458399588</v>
+        <v>437490.6199382581</v>
       </c>
       <c r="AF15" t="n">
         <v>7.817531026312026e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH15" t="n">
-        <v>273730.3627984932</v>
+        <v>395737.1291932915</v>
       </c>
     </row>
   </sheetData>
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.551442182174</v>
+        <v>283.6834580320107</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.0350867818277</v>
+        <v>388.1482225102858</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9770013066012</v>
+        <v>351.1039009233552</v>
       </c>
       <c r="AD2" t="n">
-        <v>199551.442182174</v>
+        <v>283683.4580320106</v>
       </c>
       <c r="AE2" t="n">
-        <v>273035.0867818277</v>
+        <v>388148.2225102858</v>
       </c>
       <c r="AF2" t="n">
         <v>1.308713744991265e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246977.0013066012</v>
+        <v>351103.9009233552</v>
       </c>
     </row>
   </sheetData>
@@ -19292,28 +19292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.8777145784206</v>
+        <v>300.6692504444312</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.6909717698086</v>
+        <v>411.3889330492336</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.8067807799428</v>
+        <v>372.1265506670078</v>
       </c>
       <c r="AD2" t="n">
-        <v>205877.7145784206</v>
+        <v>300669.2504444312</v>
       </c>
       <c r="AE2" t="n">
-        <v>281690.9717698086</v>
+        <v>411388.9330492336</v>
       </c>
       <c r="AF2" t="n">
         <v>1.113425065469016e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254806.7807799428</v>
+        <v>372126.5506670078</v>
       </c>
     </row>
     <row r="3">
@@ -19398,28 +19398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.2186466854094</v>
+        <v>289.4944580340174</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.4209618856819</v>
+        <v>396.0990890762583</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.7534174531776</v>
+        <v>358.2959479433825</v>
       </c>
       <c r="AD3" t="n">
-        <v>204218.6466854094</v>
+        <v>289494.4580340174</v>
       </c>
       <c r="AE3" t="n">
-        <v>279420.961885682</v>
+        <v>396099.0890762583</v>
       </c>
       <c r="AF3" t="n">
         <v>1.143325033400047e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252753.4174531776</v>
+        <v>358295.9479433825</v>
       </c>
     </row>
     <row r="4">
@@ -19504,28 +19504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.1883295563541</v>
+        <v>289.4641409049621</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.3794806522112</v>
+        <v>396.0576078427875</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.71589513041</v>
+        <v>358.2584256206149</v>
       </c>
       <c r="AD4" t="n">
-        <v>204188.3295563541</v>
+        <v>289464.1409049621</v>
       </c>
       <c r="AE4" t="n">
-        <v>279379.4806522112</v>
+        <v>396057.6078427875</v>
       </c>
       <c r="AF4" t="n">
         <v>1.143731564555601e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>252715.89513041</v>
+        <v>358258.4256206149</v>
       </c>
     </row>
   </sheetData>
@@ -19801,28 +19801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.739218810907</v>
+        <v>559.2388212627417</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.9408344267842</v>
+        <v>765.1752271272246</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.7415688253736</v>
+        <v>692.1479773803777</v>
       </c>
       <c r="AD2" t="n">
-        <v>399739.218810907</v>
+        <v>559238.8212627417</v>
       </c>
       <c r="AE2" t="n">
-        <v>546940.8344267843</v>
+        <v>765175.2271272247</v>
       </c>
       <c r="AF2" t="n">
         <v>4.449320665509994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>494741.5688253736</v>
+        <v>692147.9773803777</v>
       </c>
     </row>
     <row r="3">
@@ -19907,28 +19907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.4024706902633</v>
+        <v>492.8930323505667</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.5408514150674</v>
+        <v>674.3979917679551</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.3923912098599</v>
+        <v>610.034393957147</v>
       </c>
       <c r="AD3" t="n">
-        <v>353402.4706902633</v>
+        <v>492893.0323505667</v>
       </c>
       <c r="AE3" t="n">
-        <v>483540.8514150674</v>
+        <v>674397.9917679551</v>
       </c>
       <c r="AF3" t="n">
         <v>5.019831394094458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>437392.3912098599</v>
+        <v>610034.393957147</v>
       </c>
     </row>
     <row r="4">
@@ -20013,28 +20013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.1794429342555</v>
+        <v>454.6991441026454</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.9248597271886</v>
+        <v>622.1394288717207</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.4618555707874</v>
+        <v>562.7633149583755</v>
       </c>
       <c r="AD4" t="n">
-        <v>325179.4429342555</v>
+        <v>454699.1441026455</v>
       </c>
       <c r="AE4" t="n">
-        <v>444924.8597271885</v>
+        <v>622139.4288717207</v>
       </c>
       <c r="AF4" t="n">
         <v>5.396067486086611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>402461.8555707874</v>
+        <v>562763.3149583755</v>
       </c>
     </row>
     <row r="5">
@@ -20119,28 +20119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.4316580447531</v>
+        <v>430.0146641400104</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.746289815021</v>
+        <v>588.3650343844453</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.2091000502363</v>
+        <v>532.2123012783053</v>
       </c>
       <c r="AD5" t="n">
-        <v>310431.6580447531</v>
+        <v>430014.6641400104</v>
       </c>
       <c r="AE5" t="n">
-        <v>424746.289815021</v>
+        <v>588365.0343844453</v>
       </c>
       <c r="AF5" t="n">
         <v>5.64648812409929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>384209.1000502363</v>
+        <v>532212.3012783052</v>
       </c>
     </row>
     <row r="6">
@@ -20225,28 +20225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.3192576514792</v>
+        <v>415.8680983279556</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.4370810017788</v>
+        <v>569.0090789379555</v>
       </c>
       <c r="AC6" t="n">
-        <v>366.7427350254853</v>
+        <v>514.7036510533743</v>
       </c>
       <c r="AD6" t="n">
-        <v>296319.2576514792</v>
+        <v>415868.0983279556</v>
       </c>
       <c r="AE6" t="n">
-        <v>405437.0810017788</v>
+        <v>569009.0789379554</v>
       </c>
       <c r="AF6" t="n">
         <v>5.88249076362164e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.30729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>366742.7350254853</v>
+        <v>514703.6510533743</v>
       </c>
     </row>
     <row r="7">
@@ -20331,28 +20331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>283.2344916318874</v>
+        <v>402.8506521160681</v>
       </c>
       <c r="AB7" t="n">
-        <v>387.5339268746374</v>
+        <v>551.1980347416555</v>
       </c>
       <c r="AC7" t="n">
-        <v>350.5482328010036</v>
+        <v>498.5924679172118</v>
       </c>
       <c r="AD7" t="n">
-        <v>283234.4916318874</v>
+        <v>402850.6521160682</v>
       </c>
       <c r="AE7" t="n">
-        <v>387533.9268746374</v>
+        <v>551198.0347416556</v>
       </c>
       <c r="AF7" t="n">
         <v>6.079554283133613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>350548.2328010036</v>
+        <v>498592.4679172118</v>
       </c>
     </row>
     <row r="8">
@@ -20437,28 +20437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>270.6159065229301</v>
+        <v>390.1979015883302</v>
       </c>
       <c r="AB8" t="n">
-        <v>370.2686220358764</v>
+        <v>533.8859832696468</v>
       </c>
       <c r="AC8" t="n">
-        <v>334.9307044240464</v>
+        <v>482.9326543400747</v>
       </c>
       <c r="AD8" t="n">
-        <v>270615.9065229301</v>
+        <v>390197.9015883302</v>
       </c>
       <c r="AE8" t="n">
-        <v>370268.6220358764</v>
+        <v>533885.9832696468</v>
       </c>
       <c r="AF8" t="n">
         <v>6.244098375393678e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>334930.7044240464</v>
+        <v>482932.6543400747</v>
       </c>
     </row>
     <row r="9">
@@ -20543,28 +20543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>267.9103304165902</v>
+        <v>377.4883106011531</v>
       </c>
       <c r="AB9" t="n">
-        <v>366.5667334455884</v>
+        <v>516.4961601734095</v>
       </c>
       <c r="AC9" t="n">
-        <v>331.5821188851822</v>
+        <v>467.2024915533722</v>
       </c>
       <c r="AD9" t="n">
-        <v>267910.3304165901</v>
+        <v>377488.3106011531</v>
       </c>
       <c r="AE9" t="n">
-        <v>366566.7334455884</v>
+        <v>516496.1601734096</v>
       </c>
       <c r="AF9" t="n">
         <v>6.401538709273471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>331582.1188851823</v>
+        <v>467202.4915533722</v>
       </c>
     </row>
     <row r="10">
@@ -20649,28 +20649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>268.7813254399396</v>
+        <v>378.4607908509878</v>
       </c>
       <c r="AB10" t="n">
-        <v>367.7584672621235</v>
+        <v>517.826750554034</v>
       </c>
       <c r="AC10" t="n">
-        <v>332.6601152988762</v>
+        <v>468.4060922555653</v>
       </c>
       <c r="AD10" t="n">
-        <v>268781.3254399396</v>
+        <v>378460.7908509878</v>
       </c>
       <c r="AE10" t="n">
-        <v>367758.4672621235</v>
+        <v>517826.750554034</v>
       </c>
       <c r="AF10" t="n">
         <v>6.372650091860367e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>332660.1152988762</v>
+        <v>468406.0922555653</v>
       </c>
     </row>
     <row r="11">
@@ -20755,28 +20755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.8601971416418</v>
+        <v>366.5356476718529</v>
       </c>
       <c r="AB11" t="n">
-        <v>365.1298947701936</v>
+        <v>501.5102435561549</v>
       </c>
       <c r="AC11" t="n">
-        <v>330.2824100763514</v>
+        <v>453.6468097852023</v>
       </c>
       <c r="AD11" t="n">
-        <v>266860.1971416418</v>
+        <v>366535.6476718528</v>
       </c>
       <c r="AE11" t="n">
-        <v>365129.8947701936</v>
+        <v>501510.2435561549</v>
       </c>
       <c r="AF11" t="n">
         <v>6.501938494381306e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>330282.4100763514</v>
+        <v>453646.8097852023</v>
       </c>
     </row>
     <row r="12">
@@ -20861,28 +20861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>255.728629408587</v>
+        <v>365.3739294008577</v>
       </c>
       <c r="AB12" t="n">
-        <v>349.8991927075539</v>
+        <v>499.9207293663863</v>
       </c>
       <c r="AC12" t="n">
-        <v>316.5053048422507</v>
+        <v>452.2089965988081</v>
       </c>
       <c r="AD12" t="n">
-        <v>255728.629408587</v>
+        <v>365373.9294008577</v>
       </c>
       <c r="AE12" t="n">
-        <v>349899.1927075539</v>
+        <v>499920.7293663863</v>
       </c>
       <c r="AF12" t="n">
         <v>6.56318867774898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>316505.3048422507</v>
+        <v>452208.9965988081</v>
       </c>
     </row>
     <row r="13">
@@ -20967,28 +20967,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>254.6529776103126</v>
+        <v>364.2982776025832</v>
       </c>
       <c r="AB13" t="n">
-        <v>348.4274384627474</v>
+        <v>498.448975121579</v>
       </c>
       <c r="AC13" t="n">
-        <v>315.1740127569479</v>
+        <v>450.8777045135051</v>
       </c>
       <c r="AD13" t="n">
-        <v>254652.9776103126</v>
+        <v>364298.2776025832</v>
       </c>
       <c r="AE13" t="n">
-        <v>348427.4384627474</v>
+        <v>498448.975121579</v>
       </c>
       <c r="AF13" t="n">
         <v>6.625859612792708e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>315174.012756948</v>
+        <v>450877.7045135052</v>
       </c>
     </row>
     <row r="14">
@@ -21073,28 +21073,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>253.6799160239635</v>
+        <v>363.2237307897489</v>
       </c>
       <c r="AB14" t="n">
-        <v>347.0960526718578</v>
+        <v>496.9787327665995</v>
       </c>
       <c r="AC14" t="n">
-        <v>313.9696925573288</v>
+        <v>449.5477800253867</v>
       </c>
       <c r="AD14" t="n">
-        <v>253679.9160239635</v>
+        <v>363223.7307897489</v>
       </c>
       <c r="AE14" t="n">
-        <v>347096.0526718578</v>
+        <v>496978.7327665995</v>
       </c>
       <c r="AF14" t="n">
         <v>6.689740817782704e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>313969.6925573287</v>
+        <v>449547.7800253867</v>
       </c>
     </row>
     <row r="15">
@@ -21179,28 +21179,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>252.719629103048</v>
+        <v>352.3609142144815</v>
       </c>
       <c r="AB15" t="n">
-        <v>345.7821457417929</v>
+        <v>482.115747894674</v>
       </c>
       <c r="AC15" t="n">
-        <v>312.7811830605888</v>
+        <v>436.1032975693074</v>
       </c>
       <c r="AD15" t="n">
-        <v>252719.629103048</v>
+        <v>352360.9142144815</v>
       </c>
       <c r="AE15" t="n">
-        <v>345782.1457417929</v>
+        <v>482115.747894674</v>
       </c>
       <c r="AF15" t="n">
         <v>6.750306935528574e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>312781.1830605888</v>
+        <v>436103.2975693074</v>
       </c>
     </row>
     <row r="16">
@@ -21285,28 +21285,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>251.551181050899</v>
+        <v>351.1924661623324</v>
       </c>
       <c r="AB16" t="n">
-        <v>344.1834235685534</v>
+        <v>480.5170257214337</v>
       </c>
       <c r="AC16" t="n">
-        <v>311.3350406877422</v>
+        <v>434.6571551964606</v>
       </c>
       <c r="AD16" t="n">
-        <v>251551.181050899</v>
+        <v>351192.4661623325</v>
       </c>
       <c r="AE16" t="n">
-        <v>344183.4235685534</v>
+        <v>480517.0257214337</v>
       </c>
       <c r="AF16" t="n">
         <v>6.824449124845629e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>311335.0406877422</v>
+        <v>434657.1551964605</v>
       </c>
     </row>
     <row r="17">
@@ -21391,28 +21391,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>239.8853552826611</v>
+        <v>339.5939602017988</v>
       </c>
       <c r="AB17" t="n">
-        <v>328.2217260925483</v>
+        <v>464.6474381762618</v>
       </c>
       <c r="AC17" t="n">
-        <v>296.8967052164588</v>
+        <v>420.302138813494</v>
       </c>
       <c r="AD17" t="n">
-        <v>239885.3552826611</v>
+        <v>339593.9602017988</v>
       </c>
       <c r="AE17" t="n">
-        <v>328221.7260925483</v>
+        <v>464647.4381762618</v>
       </c>
       <c r="AF17" t="n">
         <v>6.921218100114659e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>296896.7052164588</v>
+        <v>420302.1388134939</v>
       </c>
     </row>
     <row r="18">
@@ -21497,28 +21497,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>240.1098569757461</v>
+        <v>349.7209915492357</v>
       </c>
       <c r="AB18" t="n">
-        <v>328.5288992133428</v>
+        <v>478.5036892389164</v>
       </c>
       <c r="AC18" t="n">
-        <v>297.1745621657249</v>
+        <v>432.8359687220993</v>
       </c>
       <c r="AD18" t="n">
-        <v>240109.8569757461</v>
+        <v>349720.9915492357</v>
       </c>
       <c r="AE18" t="n">
-        <v>328528.8992133428</v>
+        <v>478503.6892389164</v>
       </c>
       <c r="AF18" t="n">
         <v>6.871018207560741e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>297174.5621657249</v>
+        <v>432835.9687220993</v>
       </c>
     </row>
     <row r="19">
@@ -21603,28 +21603,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>239.3794740291464</v>
+        <v>339.0880789482841</v>
       </c>
       <c r="AB19" t="n">
-        <v>327.5295570435841</v>
+        <v>463.9552691272972</v>
       </c>
       <c r="AC19" t="n">
-        <v>296.2705958100622</v>
+        <v>419.6760294070971</v>
       </c>
       <c r="AD19" t="n">
-        <v>239379.4740291464</v>
+        <v>339088.0789482841</v>
       </c>
       <c r="AE19" t="n">
-        <v>327529.5570435841</v>
+        <v>463955.2691272972</v>
       </c>
       <c r="AF19" t="n">
         <v>6.942266273093241e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>296270.5958100621</v>
+        <v>419676.0294070971</v>
       </c>
     </row>
     <row r="20">
@@ -21709,28 +21709,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>238.7483716644674</v>
+        <v>338.4569765836051</v>
       </c>
       <c r="AB20" t="n">
-        <v>326.6660549459594</v>
+        <v>463.0917670296721</v>
       </c>
       <c r="AC20" t="n">
-        <v>295.4895051407017</v>
+        <v>418.8949387377365</v>
       </c>
       <c r="AD20" t="n">
-        <v>238748.3716644674</v>
+        <v>338456.9765836051</v>
       </c>
       <c r="AE20" t="n">
-        <v>326666.0549459594</v>
+        <v>463091.7670296721</v>
       </c>
       <c r="AF20" t="n">
         <v>6.942266273093241e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>295489.5051407017</v>
+        <v>418894.9387377365</v>
       </c>
     </row>
     <row r="21">
@@ -21815,28 +21815,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>238.0113853417319</v>
+        <v>337.7199902608696</v>
       </c>
       <c r="AB21" t="n">
-        <v>325.6576777456512</v>
+        <v>462.0833898293635</v>
       </c>
       <c r="AC21" t="n">
-        <v>294.5773660451243</v>
+        <v>417.9827996421591</v>
       </c>
       <c r="AD21" t="n">
-        <v>238011.3853417319</v>
+        <v>337719.9902608696</v>
       </c>
       <c r="AE21" t="n">
-        <v>325657.6777456512</v>
+        <v>462083.3898293634</v>
       </c>
       <c r="AF21" t="n">
         <v>7.015777017220939e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH21" t="n">
-        <v>294577.3660451244</v>
+        <v>417982.7996421591</v>
       </c>
     </row>
   </sheetData>
@@ -22112,28 +22112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.2394209587426</v>
+        <v>288.7176874517359</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.5034332278671</v>
+        <v>395.0362772968812</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.8778424076134</v>
+        <v>357.3345694285634</v>
       </c>
       <c r="AD2" t="n">
-        <v>196239.4209587426</v>
+        <v>288717.6874517359</v>
       </c>
       <c r="AE2" t="n">
-        <v>268503.4332278671</v>
+        <v>395036.2772968812</v>
       </c>
       <c r="AF2" t="n">
         <v>1.458237389653105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>242877.8424076134</v>
+        <v>357334.5694285635</v>
       </c>
     </row>
   </sheetData>
@@ -22409,28 +22409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.2475301507382</v>
+        <v>385.7205091178786</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.3963491149385</v>
+        <v>527.7598173629602</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.2371186029314</v>
+        <v>477.3911611093943</v>
       </c>
       <c r="AD2" t="n">
-        <v>269247.5301507382</v>
+        <v>385720.5091178786</v>
       </c>
       <c r="AE2" t="n">
-        <v>368396.3491149385</v>
+        <v>527759.8173629602</v>
       </c>
       <c r="AF2" t="n">
         <v>7.361839879271712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>333237.1186029314</v>
+        <v>477391.1611093943</v>
       </c>
     </row>
     <row r="3">
@@ -22515,28 +22515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.7816395026889</v>
+        <v>360.4783699633012</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.2352352231728</v>
+        <v>493.2224089670821</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.0955917212903</v>
+        <v>446.1499544972617</v>
       </c>
       <c r="AD3" t="n">
-        <v>253781.6395026889</v>
+        <v>360478.3699633012</v>
       </c>
       <c r="AE3" t="n">
-        <v>347235.2352231728</v>
+        <v>493222.4089670821</v>
       </c>
       <c r="AF3" t="n">
         <v>7.917913048354973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>314095.5917212903</v>
+        <v>446149.9544972617</v>
       </c>
     </row>
     <row r="4">
@@ -22621,28 +22621,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.4489078270672</v>
+        <v>337.4708750076335</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.9928035459878</v>
+        <v>461.7425393496965</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.5941921199563</v>
+        <v>417.6744794538848</v>
       </c>
       <c r="AD4" t="n">
-        <v>240448.9078270672</v>
+        <v>337470.8750076335</v>
       </c>
       <c r="AE4" t="n">
-        <v>328992.8035459878</v>
+        <v>461742.5393496965</v>
       </c>
       <c r="AF4" t="n">
         <v>8.311623920759947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>297594.1921199564</v>
+        <v>417674.4794538848</v>
       </c>
     </row>
     <row r="5">
@@ -22727,28 +22727,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.1323581047138</v>
+        <v>325.2216450929843</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.1407568480477</v>
+        <v>444.9826025825891</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.3504811068661</v>
+        <v>402.5140875291112</v>
       </c>
       <c r="AD5" t="n">
-        <v>228132.3581047138</v>
+        <v>325221.6450929843</v>
       </c>
       <c r="AE5" t="n">
-        <v>312140.7568480477</v>
+        <v>444982.6025825891</v>
       </c>
       <c r="AF5" t="n">
         <v>8.579460575050484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>282350.4811068662</v>
+        <v>402514.0875291112</v>
       </c>
     </row>
     <row r="6">
@@ -22833,28 +22833,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.6378657138854</v>
+        <v>324.6256674756706</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.4641705434519</v>
+        <v>444.1671597139037</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.7384672495859</v>
+        <v>401.7764693833319</v>
       </c>
       <c r="AD6" t="n">
-        <v>227637.8657138854</v>
+        <v>324625.6674756706</v>
       </c>
       <c r="AE6" t="n">
-        <v>311464.1705434519</v>
+        <v>444167.1597139037</v>
       </c>
       <c r="AF6" t="n">
         <v>8.642783801341185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>281738.467249586</v>
+        <v>401776.4693833319</v>
       </c>
     </row>
     <row r="7">
@@ -22939,28 +22939,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.1712331199751</v>
+        <v>312.2263546894645</v>
       </c>
       <c r="AB7" t="n">
-        <v>294.4067738394586</v>
+        <v>427.2018729407431</v>
       </c>
       <c r="AC7" t="n">
-        <v>266.3090045468097</v>
+        <v>386.4303257688721</v>
       </c>
       <c r="AD7" t="n">
-        <v>215171.2331199751</v>
+        <v>312226.3546894646</v>
       </c>
       <c r="AE7" t="n">
-        <v>294406.7738394586</v>
+        <v>427201.8729407431</v>
       </c>
       <c r="AF7" t="n">
         <v>8.927223496671354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>266309.0045468097</v>
+        <v>386430.3257688722</v>
       </c>
     </row>
     <row r="8">
@@ -23045,28 +23045,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>213.7645141941741</v>
+        <v>310.7181505371783</v>
       </c>
       <c r="AB8" t="n">
-        <v>292.4820389451197</v>
+        <v>425.1382814823139</v>
       </c>
       <c r="AC8" t="n">
-        <v>264.5679636494035</v>
+        <v>384.5636805829666</v>
       </c>
       <c r="AD8" t="n">
-        <v>213764.5141941741</v>
+        <v>310718.1505371783</v>
       </c>
       <c r="AE8" t="n">
-        <v>292482.0389451197</v>
+        <v>425138.2814823139</v>
       </c>
       <c r="AF8" t="n">
         <v>9.068413698380493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>264567.9636494035</v>
+        <v>384563.6805829667</v>
       </c>
     </row>
     <row r="9">
@@ -23151,28 +23151,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>213.937871583104</v>
+        <v>310.9929931525935</v>
       </c>
       <c r="AB9" t="n">
-        <v>292.7192341726417</v>
+        <v>425.5143332739253</v>
       </c>
       <c r="AC9" t="n">
-        <v>264.7825212973164</v>
+        <v>384.9038425193787</v>
       </c>
       <c r="AD9" t="n">
-        <v>213937.871583104</v>
+        <v>310992.9931525935</v>
       </c>
       <c r="AE9" t="n">
-        <v>292719.2341726416</v>
+        <v>425514.3332739253</v>
       </c>
       <c r="AF9" t="n">
         <v>9.036559026618405e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>264782.5212973164</v>
+        <v>384903.8425193786</v>
       </c>
     </row>
   </sheetData>
@@ -23448,28 +23448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8501048119514</v>
+        <v>295.6438032167536</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.916706635497</v>
+        <v>404.5128944452406</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.2972876163434</v>
+        <v>365.9067515367992</v>
       </c>
       <c r="AD2" t="n">
-        <v>203850.1048119513</v>
+        <v>295643.8032167536</v>
       </c>
       <c r="AE2" t="n">
-        <v>278916.706635497</v>
+        <v>404512.8944452407</v>
       </c>
       <c r="AF2" t="n">
         <v>1.547476740984608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>252297.2876163434</v>
+        <v>365906.7515367992</v>
       </c>
     </row>
   </sheetData>
@@ -23745,28 +23745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.1849931125343</v>
+        <v>485.4629741779831</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.0338242974666</v>
+        <v>664.2318583851941</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.6972628206755</v>
+        <v>600.8385020761788</v>
       </c>
       <c r="AD2" t="n">
-        <v>347184.9931125343</v>
+        <v>485462.9741779831</v>
       </c>
       <c r="AE2" t="n">
-        <v>475033.8242974666</v>
+        <v>664231.8583851941</v>
       </c>
       <c r="AF2" t="n">
         <v>5.334814587002133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>429697.2628206754</v>
+        <v>600838.5020761788</v>
       </c>
     </row>
     <row r="3">
@@ -23851,28 +23851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.4142089156229</v>
+        <v>435.8752621964952</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.6176827960846</v>
+        <v>596.3837631966667</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.4745214906509</v>
+        <v>539.4657338670447</v>
       </c>
       <c r="AD3" t="n">
-        <v>307414.2089156229</v>
+        <v>435875.2621964952</v>
       </c>
       <c r="AE3" t="n">
-        <v>420617.6827960846</v>
+        <v>596383.7631966667</v>
       </c>
       <c r="AF3" t="n">
         <v>5.851211603107072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>380474.5214906509</v>
+        <v>539465.7338670447</v>
       </c>
     </row>
     <row r="4">
@@ -23957,28 +23957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.1031723083779</v>
+        <v>409.6126581892647</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.3002029179031</v>
+        <v>560.4501097696568</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.2869905692635</v>
+        <v>506.9615378899093</v>
       </c>
       <c r="AD4" t="n">
-        <v>291103.1723083779</v>
+        <v>409612.6581892647</v>
       </c>
       <c r="AE4" t="n">
-        <v>398300.2029179031</v>
+        <v>560450.1097696568</v>
       </c>
       <c r="AF4" t="n">
         <v>6.249568615964429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>360286.9905692635</v>
+        <v>506961.5378899093</v>
       </c>
     </row>
     <row r="5">
@@ -24063,28 +24063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.2194611485565</v>
+        <v>385.8788648559432</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.3038968029277</v>
+        <v>527.9764866699422</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.1036652484182</v>
+        <v>477.5871518018153</v>
       </c>
       <c r="AD5" t="n">
-        <v>277219.4611485565</v>
+        <v>385878.8648559432</v>
       </c>
       <c r="AE5" t="n">
-        <v>379303.8968029277</v>
+        <v>527976.4866699423</v>
       </c>
       <c r="AF5" t="n">
         <v>6.536325189318734e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>343103.6652484182</v>
+        <v>477587.1518018153</v>
       </c>
     </row>
     <row r="6">
@@ -24169,28 +24169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.608626203005</v>
+        <v>373.3353497180961</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.0491960796517</v>
+        <v>510.8138958775076</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.495728945047</v>
+        <v>462.0625345867632</v>
       </c>
       <c r="AD6" t="n">
-        <v>264608.626203005</v>
+        <v>373335.3497180961</v>
       </c>
       <c r="AE6" t="n">
-        <v>362049.1960796517</v>
+        <v>510813.8958775076</v>
       </c>
       <c r="AF6" t="n">
         <v>6.741103316394829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>327495.728945047</v>
+        <v>462062.5345867632</v>
       </c>
     </row>
     <row r="7">
@@ -24275,28 +24275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.2673950615271</v>
+        <v>361.0767165954135</v>
       </c>
       <c r="AB7" t="n">
-        <v>358.8458203440532</v>
+        <v>494.0410932263285</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.5980788936881</v>
+        <v>446.8905046798362</v>
       </c>
       <c r="AD7" t="n">
-        <v>262267.395061527</v>
+        <v>361076.7165954135</v>
       </c>
       <c r="AE7" t="n">
-        <v>358845.8203440532</v>
+        <v>494041.0932263286</v>
       </c>
       <c r="AF7" t="n">
         <v>6.920963131589913e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>324598.078893688</v>
+        <v>446890.5046798362</v>
       </c>
     </row>
     <row r="8">
@@ -24381,28 +24381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.807331253099</v>
+        <v>358.3984041229271</v>
       </c>
       <c r="AB8" t="n">
-        <v>341.7974113419812</v>
+        <v>490.3765079426657</v>
       </c>
       <c r="AC8" t="n">
-        <v>309.1767461192841</v>
+        <v>443.5756622723684</v>
       </c>
       <c r="AD8" t="n">
-        <v>249807.331253099</v>
+        <v>358398.4041229271</v>
       </c>
       <c r="AE8" t="n">
-        <v>341797.4113419811</v>
+        <v>490376.5079426657</v>
       </c>
       <c r="AF8" t="n">
         <v>7.112358165318679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>309176.7461192841</v>
+        <v>443575.6622723684</v>
       </c>
     </row>
     <row r="9">
@@ -24487,28 +24487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>249.9918272805103</v>
+        <v>358.6843853768237</v>
       </c>
       <c r="AB9" t="n">
-        <v>342.0498469460754</v>
+        <v>490.7678001108494</v>
       </c>
       <c r="AC9" t="n">
-        <v>309.4050896236193</v>
+        <v>443.9296100652027</v>
       </c>
       <c r="AD9" t="n">
-        <v>249991.8272805102</v>
+        <v>358684.3853768237</v>
       </c>
       <c r="AE9" t="n">
-        <v>342049.8469460754</v>
+        <v>490767.8001108494</v>
       </c>
       <c r="AF9" t="n">
         <v>7.108886400517281e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>309405.0896236193</v>
+        <v>443929.6100652027</v>
       </c>
     </row>
     <row r="10">
@@ -24593,28 +24593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>248.1373174144672</v>
+        <v>346.9124735295759</v>
       </c>
       <c r="AB10" t="n">
-        <v>339.5124247321555</v>
+        <v>474.6609509813476</v>
       </c>
       <c r="AC10" t="n">
-        <v>307.1098354245007</v>
+        <v>429.3599760105157</v>
       </c>
       <c r="AD10" t="n">
-        <v>248137.3174144672</v>
+        <v>346912.4735295759</v>
       </c>
       <c r="AE10" t="n">
-        <v>339512.4247321555</v>
+        <v>474660.9509813476</v>
       </c>
       <c r="AF10" t="n">
         <v>7.253636594253049e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>307109.8354245006</v>
+        <v>429359.9760105157</v>
       </c>
     </row>
     <row r="11">
@@ -24699,28 +24699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>237.1854516498374</v>
+        <v>345.8438443273699</v>
       </c>
       <c r="AB11" t="n">
-        <v>324.527598830779</v>
+        <v>473.1988053622961</v>
       </c>
       <c r="AC11" t="n">
-        <v>293.5551402758115</v>
+        <v>428.0373755172124</v>
       </c>
       <c r="AD11" t="n">
-        <v>237185.4516498374</v>
+        <v>345843.8443273699</v>
       </c>
       <c r="AE11" t="n">
-        <v>324527.598830779</v>
+        <v>473198.8053622961</v>
       </c>
       <c r="AF11" t="n">
         <v>7.312040637605626e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>293555.1402758115</v>
+        <v>428037.3755172124</v>
       </c>
     </row>
     <row r="12">
@@ -24805,28 +24805,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.553556959069</v>
+        <v>334.396032881882</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.294768520758</v>
+        <v>457.5354047007826</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.5354081567812</v>
+        <v>413.8688678311128</v>
       </c>
       <c r="AD12" t="n">
-        <v>235553.556959069</v>
+        <v>334396.032881882</v>
       </c>
       <c r="AE12" t="n">
-        <v>322294.768520758</v>
+        <v>457535.4047007826</v>
       </c>
       <c r="AF12" t="n">
         <v>7.448783373815586e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>291535.4081567812</v>
+        <v>413868.8678311128</v>
       </c>
     </row>
     <row r="13">
@@ -24911,28 +24911,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>234.5458036127238</v>
+        <v>333.2867943090516</v>
       </c>
       <c r="AB13" t="n">
-        <v>320.9159159333494</v>
+        <v>456.017695549284</v>
       </c>
       <c r="AC13" t="n">
-        <v>290.2881513250827</v>
+        <v>412.4960067109151</v>
       </c>
       <c r="AD13" t="n">
-        <v>234545.8036127238</v>
+        <v>333286.7943090516</v>
       </c>
       <c r="AE13" t="n">
-        <v>320915.9159333494</v>
+        <v>456017.695549284</v>
       </c>
       <c r="AF13" t="n">
         <v>7.515418859519867e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>290288.1513250826</v>
+        <v>412496.0067109151</v>
       </c>
     </row>
     <row r="14">
@@ -25017,28 +25017,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>233.1349738171459</v>
+        <v>331.8759645134737</v>
       </c>
       <c r="AB14" t="n">
-        <v>318.9855563656229</v>
+        <v>454.0873359815566</v>
       </c>
       <c r="AC14" t="n">
-        <v>288.5420225652227</v>
+        <v>410.7498779510548</v>
       </c>
       <c r="AD14" t="n">
-        <v>233134.9738171459</v>
+        <v>331875.9645134737</v>
       </c>
       <c r="AE14" t="n">
-        <v>318985.5563656229</v>
+        <v>454087.3359815566</v>
       </c>
       <c r="AF14" t="n">
         <v>7.613076243610848e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>288542.0225652227</v>
+        <v>410749.8779510548</v>
       </c>
     </row>
     <row r="15">
@@ -25123,28 +25123,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>233.1740259365093</v>
+        <v>331.915016632837</v>
       </c>
       <c r="AB15" t="n">
-        <v>319.0389891981937</v>
+        <v>454.1407688141273</v>
       </c>
       <c r="AC15" t="n">
-        <v>288.5903558432464</v>
+        <v>410.7982112290785</v>
       </c>
       <c r="AD15" t="n">
-        <v>233174.0259365093</v>
+        <v>331915.016632837</v>
       </c>
       <c r="AE15" t="n">
-        <v>319038.9891981937</v>
+        <v>454140.7688141274</v>
       </c>
       <c r="AF15" t="n">
         <v>7.571303073581104e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>288590.3558432464</v>
+        <v>410798.2112290785</v>
       </c>
     </row>
     <row r="16">
@@ -25229,28 +25229,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>232.891208505558</v>
+        <v>331.6321992018858</v>
       </c>
       <c r="AB16" t="n">
-        <v>318.6520259121419</v>
+        <v>453.7538055280754</v>
       </c>
       <c r="AC16" t="n">
-        <v>288.2403237901089</v>
+        <v>410.448179175941</v>
       </c>
       <c r="AD16" t="n">
-        <v>232891.208505558</v>
+        <v>331632.1992018858</v>
       </c>
       <c r="AE16" t="n">
-        <v>318652.025912142</v>
+        <v>453753.8055280754</v>
       </c>
       <c r="AF16" t="n">
         <v>7.567327342921438e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>288240.3237901089</v>
+        <v>410448.179175941</v>
       </c>
     </row>
   </sheetData>
@@ -25526,28 +25526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.2031515088482</v>
+        <v>575.0646116807959</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.0992693646695</v>
+        <v>786.8287717618043</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.880672428837</v>
+        <v>711.7349381059739</v>
       </c>
       <c r="AD2" t="n">
-        <v>415203.1515088482</v>
+        <v>575064.6116807959</v>
       </c>
       <c r="AE2" t="n">
-        <v>568099.2693646695</v>
+        <v>786828.7717618044</v>
       </c>
       <c r="AF2" t="n">
         <v>4.27871760981669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>513880.672428837</v>
+        <v>711734.9381059739</v>
       </c>
     </row>
     <row r="3">
@@ -25632,28 +25632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.4219025152501</v>
+        <v>508.233360358</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.0911006485817</v>
+        <v>695.3873053152333</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.9813534989836</v>
+        <v>629.0205168781594</v>
       </c>
       <c r="AD3" t="n">
-        <v>368421.9025152501</v>
+        <v>508233.360358</v>
       </c>
       <c r="AE3" t="n">
-        <v>504091.1006485817</v>
+        <v>695387.3053152333</v>
       </c>
       <c r="AF3" t="n">
         <v>4.818641634520375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>455981.3534989836</v>
+        <v>629020.5168781594</v>
       </c>
     </row>
     <row r="4">
@@ -25738,28 +25738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.7514924485612</v>
+        <v>469.5716090305643</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.8629807461144</v>
+        <v>642.4885915129449</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.4971103029957</v>
+        <v>581.1703820773504</v>
       </c>
       <c r="AD4" t="n">
-        <v>339751.4924485612</v>
+        <v>469571.6090305643</v>
       </c>
       <c r="AE4" t="n">
-        <v>464862.9807461144</v>
+        <v>642488.5915129449</v>
       </c>
       <c r="AF4" t="n">
         <v>5.177138320472375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>420497.1103029957</v>
+        <v>581170.3820773504</v>
       </c>
     </row>
     <row r="5">
@@ -25844,28 +25844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.8314089931936</v>
+        <v>443.6846799641203</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.3979790491036</v>
+        <v>607.0689531135279</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.416838592505</v>
+        <v>549.1311442549987</v>
       </c>
       <c r="AD5" t="n">
-        <v>313831.4089931936</v>
+        <v>443684.6799641203</v>
       </c>
       <c r="AE5" t="n">
-        <v>429397.9790491036</v>
+        <v>607068.9531135279</v>
       </c>
       <c r="AF5" t="n">
         <v>5.46305369475334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>388416.838592505</v>
+        <v>549131.1442549988</v>
       </c>
     </row>
     <row r="6">
@@ -25950,28 +25950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.5655276548628</v>
+        <v>419.4616227838236</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.8787708357332</v>
+        <v>573.9258976335842</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.7605162156379</v>
+        <v>519.1512154734907</v>
       </c>
       <c r="AD6" t="n">
-        <v>299565.5276548628</v>
+        <v>419461.6227838236</v>
       </c>
       <c r="AE6" t="n">
-        <v>409878.7708357332</v>
+        <v>573925.8976335842</v>
       </c>
       <c r="AF6" t="n">
         <v>5.688683519240352e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>370760.516215638</v>
+        <v>519151.2154734907</v>
       </c>
     </row>
     <row r="7">
@@ -26056,28 +26056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>286.3681592006913</v>
+        <v>406.2300889108713</v>
       </c>
       <c r="AB7" t="n">
-        <v>391.821549089931</v>
+        <v>555.8219292545343</v>
       </c>
       <c r="AC7" t="n">
-        <v>354.4266503697852</v>
+        <v>502.775064427458</v>
       </c>
       <c r="AD7" t="n">
-        <v>286368.1592006913</v>
+        <v>406230.0889108713</v>
       </c>
       <c r="AE7" t="n">
-        <v>391821.549089931</v>
+        <v>555821.9292545343</v>
       </c>
       <c r="AF7" t="n">
         <v>5.878463675132164e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>354426.6503697852</v>
+        <v>502775.064427458</v>
       </c>
     </row>
     <row r="8">
@@ -26162,28 +26162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>283.8048628491035</v>
+        <v>393.6422969096132</v>
       </c>
       <c r="AB8" t="n">
-        <v>388.3143339370346</v>
+        <v>538.5987569042233</v>
       </c>
       <c r="AC8" t="n">
-        <v>351.2541589086738</v>
+        <v>487.1956474733864</v>
       </c>
       <c r="AD8" t="n">
-        <v>283804.8628491035</v>
+        <v>393642.2969096131</v>
       </c>
       <c r="AE8" t="n">
-        <v>388314.3339370346</v>
+        <v>538598.7569042232</v>
       </c>
       <c r="AF8" t="n">
         <v>6.036752153980145e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>351254.1589086739</v>
+        <v>487195.6474733864</v>
       </c>
     </row>
     <row r="9">
@@ -26268,28 +26268,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>271.09481342318</v>
+        <v>390.9225777145792</v>
       </c>
       <c r="AB9" t="n">
-        <v>370.9238835846797</v>
+        <v>534.8775171160352</v>
       </c>
       <c r="AC9" t="n">
-        <v>335.5234287302974</v>
+        <v>483.8295575877902</v>
       </c>
       <c r="AD9" t="n">
-        <v>271094.81342318</v>
+        <v>390922.5777145792</v>
       </c>
       <c r="AE9" t="n">
-        <v>370923.8835846797</v>
+        <v>534877.5171160352</v>
       </c>
       <c r="AF9" t="n">
         <v>6.180150828360945e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>335523.4287302974</v>
+        <v>483829.5575877902</v>
       </c>
     </row>
     <row r="10">
@@ -26374,28 +26374,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>270.8268552564679</v>
+        <v>380.7316091246821</v>
       </c>
       <c r="AB10" t="n">
-        <v>370.5572513995042</v>
+        <v>520.9337842975344</v>
       </c>
       <c r="AC10" t="n">
-        <v>335.1917874063035</v>
+        <v>471.2165950593352</v>
       </c>
       <c r="AD10" t="n">
-        <v>270826.8552564679</v>
+        <v>380731.609124682</v>
       </c>
       <c r="AE10" t="n">
-        <v>370557.2513995042</v>
+        <v>520933.7842975344</v>
       </c>
       <c r="AF10" t="n">
         <v>6.230267731201703e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>335191.7874063036</v>
+        <v>471216.5950593352</v>
       </c>
     </row>
     <row r="11">
@@ -26480,28 +26480,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>269.7461277788057</v>
+        <v>379.5493964205345</v>
       </c>
       <c r="AB11" t="n">
-        <v>369.0785523862353</v>
+        <v>519.3162287201761</v>
       </c>
       <c r="AC11" t="n">
-        <v>333.8542133514939</v>
+        <v>469.7534167160265</v>
       </c>
       <c r="AD11" t="n">
-        <v>269746.1277788057</v>
+        <v>379549.3964205345</v>
       </c>
       <c r="AE11" t="n">
-        <v>369078.5523862353</v>
+        <v>519316.2287201762</v>
       </c>
       <c r="AF11" t="n">
         <v>6.289411902256011e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>333854.2133514939</v>
+        <v>469753.4167160265</v>
       </c>
     </row>
     <row r="12">
@@ -26586,28 +26586,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>267.7945147279435</v>
+        <v>367.6747729464872</v>
       </c>
       <c r="AB12" t="n">
-        <v>366.4082693109545</v>
+        <v>503.06884501157</v>
       </c>
       <c r="AC12" t="n">
-        <v>331.4387783451521</v>
+        <v>455.0566605052234</v>
       </c>
       <c r="AD12" t="n">
-        <v>267794.5147279435</v>
+        <v>367674.7729464872</v>
       </c>
       <c r="AE12" t="n">
-        <v>366408.2693109545</v>
+        <v>503068.84501157</v>
       </c>
       <c r="AF12" t="n">
         <v>6.420877980722345e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>331438.7783451521</v>
+        <v>455056.6605052234</v>
       </c>
     </row>
     <row r="13">
@@ -26692,28 +26692,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>256.7220461142063</v>
+        <v>366.5926345636428</v>
       </c>
       <c r="AB13" t="n">
-        <v>351.2584292706334</v>
+        <v>501.5882155355862</v>
       </c>
       <c r="AC13" t="n">
-        <v>317.7348177754509</v>
+        <v>453.717340228351</v>
       </c>
       <c r="AD13" t="n">
-        <v>256722.0461142063</v>
+        <v>366592.6345636428</v>
       </c>
       <c r="AE13" t="n">
-        <v>351258.4292706334</v>
+        <v>501588.2155355862</v>
       </c>
       <c r="AF13" t="n">
         <v>6.479243938999624e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>317734.8177754509</v>
+        <v>453717.340228351</v>
       </c>
     </row>
     <row r="14">
@@ -26798,28 +26798,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>255.8608781459296</v>
+        <v>365.7314665953662</v>
       </c>
       <c r="AB14" t="n">
-        <v>350.0801412643884</v>
+        <v>500.4099275293407</v>
       </c>
       <c r="AC14" t="n">
-        <v>316.6689839227839</v>
+        <v>452.6515063756839</v>
       </c>
       <c r="AD14" t="n">
-        <v>255860.8781459296</v>
+        <v>365731.4665953661</v>
       </c>
       <c r="AE14" t="n">
-        <v>350080.1412643885</v>
+        <v>500409.9275293407</v>
       </c>
       <c r="AF14" t="n">
         <v>6.536624161092665e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>316668.9839227839</v>
+        <v>452651.5063756839</v>
       </c>
     </row>
     <row r="15">
@@ -26904,28 +26904,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>254.7481509491976</v>
+        <v>364.5172541721489</v>
       </c>
       <c r="AB15" t="n">
-        <v>348.5576588237611</v>
+        <v>498.7485885246234</v>
       </c>
       <c r="AC15" t="n">
-        <v>315.2918050694721</v>
+        <v>451.1487232338728</v>
       </c>
       <c r="AD15" t="n">
-        <v>254748.1509491976</v>
+        <v>364517.2541721489</v>
       </c>
       <c r="AE15" t="n">
-        <v>348557.6588237612</v>
+        <v>498748.5885246234</v>
       </c>
       <c r="AF15" t="n">
         <v>6.604795600360528e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH15" t="n">
-        <v>315291.8050694721</v>
+        <v>451148.7232338728</v>
       </c>
     </row>
     <row r="16">
@@ -27010,28 +27010,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>253.7148978996196</v>
+        <v>353.5609906993857</v>
       </c>
       <c r="AB16" t="n">
-        <v>347.1439164174219</v>
+        <v>483.757745484958</v>
       </c>
       <c r="AC16" t="n">
-        <v>314.0129882541935</v>
+        <v>437.5885852141329</v>
       </c>
       <c r="AD16" t="n">
-        <v>253714.8978996197</v>
+        <v>353560.9906993858</v>
       </c>
       <c r="AE16" t="n">
-        <v>347143.9164174219</v>
+        <v>483757.7454849581</v>
       </c>
       <c r="AF16" t="n">
         <v>6.665859362931512e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>314012.9882541935</v>
+        <v>437588.5852141329</v>
       </c>
     </row>
     <row r="17">
@@ -27116,28 +27116,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>253.0888699574431</v>
+        <v>352.9349627572092</v>
       </c>
       <c r="AB17" t="n">
-        <v>346.2873573685328</v>
+        <v>482.9011864360684</v>
       </c>
       <c r="AC17" t="n">
-        <v>313.2381779987418</v>
+        <v>436.8137749586811</v>
       </c>
       <c r="AD17" t="n">
-        <v>253088.8699574431</v>
+        <v>352934.9627572092</v>
       </c>
       <c r="AE17" t="n">
-        <v>346287.3573685327</v>
+        <v>482901.1864360684</v>
       </c>
       <c r="AF17" t="n">
         <v>6.678258886512197e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.234375</v>
       </c>
       <c r="AH17" t="n">
-        <v>313238.1779987419</v>
+        <v>436813.7749586811</v>
       </c>
     </row>
     <row r="18">
@@ -27222,28 +27222,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>251.952634855744</v>
+        <v>351.79872765551</v>
       </c>
       <c r="AB18" t="n">
-        <v>344.732710375234</v>
+        <v>481.3465394427689</v>
       </c>
       <c r="AC18" t="n">
-        <v>311.8319043325223</v>
+        <v>435.4075012924613</v>
       </c>
       <c r="AD18" t="n">
-        <v>251952.634855744</v>
+        <v>351798.7276555101</v>
       </c>
       <c r="AE18" t="n">
-        <v>344732.710375234</v>
+        <v>481346.5394427688</v>
       </c>
       <c r="AF18" t="n">
         <v>6.749958223702596e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>311831.9043325223</v>
+        <v>435407.5012924613</v>
       </c>
     </row>
     <row r="19">
@@ -27328,28 +27328,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>241.0812060923691</v>
+        <v>350.9176291230245</v>
       </c>
       <c r="AB19" t="n">
-        <v>329.8579419276042</v>
+        <v>480.1409815592982</v>
       </c>
       <c r="AC19" t="n">
-        <v>298.3767629086609</v>
+        <v>434.3170001613781</v>
       </c>
       <c r="AD19" t="n">
-        <v>241081.2060923691</v>
+        <v>350917.6291230245</v>
       </c>
       <c r="AE19" t="n">
-        <v>329857.9419276042</v>
+        <v>480140.9815592982</v>
       </c>
       <c r="AF19" t="n">
         <v>6.792915568994674e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>298376.7629086609</v>
+        <v>434317.0001613781</v>
       </c>
     </row>
     <row r="20">
@@ -27434,28 +27434,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>241.1219044860511</v>
+        <v>350.9583275167066</v>
       </c>
       <c r="AB20" t="n">
-        <v>329.9136272653263</v>
+        <v>480.1966668970204</v>
       </c>
       <c r="AC20" t="n">
-        <v>298.4271337159057</v>
+        <v>434.3673709686229</v>
       </c>
       <c r="AD20" t="n">
-        <v>241121.9044860511</v>
+        <v>350958.3275167065</v>
       </c>
       <c r="AE20" t="n">
-        <v>329913.6272653263</v>
+        <v>480196.6668970204</v>
       </c>
       <c r="AF20" t="n">
         <v>6.790944096626196e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>298427.1337159057</v>
+        <v>434367.3709686229</v>
       </c>
     </row>
     <row r="21">
@@ -27540,28 +27540,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>240.4982220812746</v>
+        <v>350.3346451119301</v>
       </c>
       <c r="AB21" t="n">
-        <v>329.0602774841858</v>
+        <v>479.3433171158794</v>
       </c>
       <c r="AC21" t="n">
-        <v>297.655226440193</v>
+        <v>433.59546369291</v>
       </c>
       <c r="AD21" t="n">
-        <v>240498.2220812746</v>
+        <v>350334.6451119301</v>
       </c>
       <c r="AE21" t="n">
-        <v>329060.2774841858</v>
+        <v>479343.3171158794</v>
       </c>
       <c r="AF21" t="n">
         <v>6.788713219998709e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>297655.226440193</v>
+        <v>433595.46369291</v>
       </c>
     </row>
     <row r="22">
@@ -27646,28 +27646,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>239.6996440786305</v>
+        <v>339.6130566861009</v>
       </c>
       <c r="AB22" t="n">
-        <v>327.9676278301937</v>
+        <v>464.6735668285614</v>
       </c>
       <c r="AC22" t="n">
-        <v>296.6668577356342</v>
+        <v>420.3257737838898</v>
       </c>
       <c r="AD22" t="n">
-        <v>239699.6440786305</v>
+        <v>339613.0566861009</v>
       </c>
       <c r="AE22" t="n">
-        <v>327967.6278301937</v>
+        <v>464673.5668285614</v>
       </c>
       <c r="AF22" t="n">
         <v>6.857247825229186e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>296666.8577356342</v>
+        <v>420325.7737838898</v>
       </c>
     </row>
     <row r="23">
@@ -27752,28 +27752,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>239.7737432556404</v>
+        <v>339.6871558631107</v>
       </c>
       <c r="AB23" t="n">
-        <v>328.0690135932035</v>
+        <v>464.7749525915713</v>
       </c>
       <c r="AC23" t="n">
-        <v>296.7585673837182</v>
+        <v>420.4174834319738</v>
       </c>
       <c r="AD23" t="n">
-        <v>239773.7432556404</v>
+        <v>339687.1558631107</v>
       </c>
       <c r="AE23" t="n">
-        <v>328069.0135932035</v>
+        <v>464774.9525915713</v>
       </c>
       <c r="AF23" t="n">
         <v>6.854965067749897e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>296758.5673837182</v>
+        <v>420417.4834319738</v>
       </c>
     </row>
   </sheetData>
@@ -28049,28 +28049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.3851771978561</v>
+        <v>331.2022952260851</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.0643839030758</v>
+        <v>453.16559194236</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.3270111236636</v>
+        <v>409.9161038692832</v>
       </c>
       <c r="AD2" t="n">
-        <v>235385.1771978561</v>
+        <v>331202.2952260851</v>
       </c>
       <c r="AE2" t="n">
-        <v>322064.3839030758</v>
+        <v>453165.59194236</v>
       </c>
       <c r="AF2" t="n">
         <v>9.178158634537005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291327.0111236636</v>
+        <v>409916.1038692832</v>
       </c>
     </row>
     <row r="3">
@@ -28155,28 +28155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.0620519083983</v>
+        <v>317.8450045178464</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.8350961072442</v>
+        <v>434.8895575132712</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.8375009700943</v>
+        <v>393.3843085155314</v>
       </c>
       <c r="AD3" t="n">
-        <v>222062.0519083983</v>
+        <v>317845.0045178464</v>
       </c>
       <c r="AE3" t="n">
-        <v>303835.0961072442</v>
+        <v>434889.5575132712</v>
       </c>
       <c r="AF3" t="n">
         <v>9.705062885848211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>274837.5009700943</v>
+        <v>393384.3085155314</v>
       </c>
     </row>
     <row r="4">
@@ -28261,28 +28261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.9822661839255</v>
+        <v>295.2109404285611</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.9387562396086</v>
+        <v>403.9206324818773</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.6491626617494</v>
+        <v>365.3710142239743</v>
       </c>
       <c r="AD4" t="n">
-        <v>208982.2661839255</v>
+        <v>295210.9404285611</v>
       </c>
       <c r="AE4" t="n">
-        <v>285938.7562396086</v>
+        <v>403920.6324818773</v>
       </c>
       <c r="AF4" t="n">
         <v>1.018887113075794e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>258649.1626617494</v>
+        <v>365371.0142239743</v>
       </c>
     </row>
     <row r="5">
@@ -28367,28 +28367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.5878130807534</v>
+        <v>294.8164873253891</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.3990481018063</v>
+        <v>403.3809243440746</v>
       </c>
       <c r="AC5" t="n">
-        <v>258.1609635111336</v>
+        <v>364.8828150733584</v>
       </c>
       <c r="AD5" t="n">
-        <v>208587.8130807535</v>
+        <v>294816.4873253891</v>
       </c>
       <c r="AE5" t="n">
-        <v>285399.0481018063</v>
+        <v>403380.9243440746</v>
       </c>
       <c r="AF5" t="n">
         <v>1.020945108722587e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>258160.9635111336</v>
+        <v>364882.8150733584</v>
       </c>
     </row>
     <row r="6">
@@ -28473,28 +28473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.1891972333021</v>
+        <v>294.4178714779377</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.8536443136335</v>
+        <v>402.8355205559016</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.6676122950249</v>
+        <v>364.3894638572496</v>
       </c>
       <c r="AD6" t="n">
-        <v>208189.1972333021</v>
+        <v>294417.8714779377</v>
       </c>
       <c r="AE6" t="n">
-        <v>284853.6443136335</v>
+        <v>402835.5205559016</v>
       </c>
       <c r="AF6" t="n">
         <v>1.029291822774387e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>257667.6122950249</v>
+        <v>364389.4638572496</v>
       </c>
     </row>
   </sheetData>
@@ -28770,28 +28770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.8743277648711</v>
+        <v>516.8408581557618</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.024325886684</v>
+        <v>707.1644635381333</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.680249872257</v>
+        <v>639.6736796496111</v>
       </c>
       <c r="AD2" t="n">
-        <v>377874.3277648711</v>
+        <v>516840.8581557618</v>
       </c>
       <c r="AE2" t="n">
-        <v>517024.325886684</v>
+        <v>707164.4635381333</v>
       </c>
       <c r="AF2" t="n">
         <v>4.865772344384307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>467680.249872257</v>
+        <v>639673.6796496111</v>
       </c>
     </row>
     <row r="3">
@@ -28876,28 +28876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.1393185096134</v>
+        <v>464.1431345688793</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.5524008880923</v>
+        <v>635.0611132670764</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.7888033296688</v>
+        <v>574.4517719307365</v>
       </c>
       <c r="AD3" t="n">
-        <v>335139.3185096134</v>
+        <v>464143.1345688793</v>
       </c>
       <c r="AE3" t="n">
-        <v>458552.4008880924</v>
+        <v>635061.1132670764</v>
       </c>
       <c r="AF3" t="n">
         <v>5.411955913538669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>414788.8033296688</v>
+        <v>574451.7719307365</v>
       </c>
     </row>
     <row r="4">
@@ -28982,28 +28982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.6313017728681</v>
+        <v>437.5667869945724</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.2829629377147</v>
+        <v>598.6981820502032</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.9808696327993</v>
+        <v>541.5592678335071</v>
       </c>
       <c r="AD4" t="n">
-        <v>308631.3017728681</v>
+        <v>437566.7869945724</v>
       </c>
       <c r="AE4" t="n">
-        <v>422282.9629377147</v>
+        <v>598698.1820502032</v>
       </c>
       <c r="AF4" t="n">
         <v>5.766915594624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381980.8696327993</v>
+        <v>541559.267833507</v>
       </c>
     </row>
     <row r="5">
@@ -29088,28 +29088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.297739263895</v>
+        <v>412.3388409915362</v>
       </c>
       <c r="AB5" t="n">
-        <v>401.3029062439026</v>
+        <v>564.1801933504216</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.0031201041501</v>
+        <v>510.3356275289311</v>
       </c>
       <c r="AD5" t="n">
-        <v>293297.739263895</v>
+        <v>412338.8409915362</v>
       </c>
       <c r="AE5" t="n">
-        <v>401302.9062439026</v>
+        <v>564180.1933504216</v>
       </c>
       <c r="AF5" t="n">
         <v>6.091242585956282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>363003.1201041501</v>
+        <v>510335.6275289311</v>
       </c>
     </row>
     <row r="6">
@@ -29194,28 +29194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.2583020621839</v>
+        <v>399.2652383710444</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.461773005152</v>
+        <v>546.292313478423</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.8647195815181</v>
+        <v>494.1549418061192</v>
       </c>
       <c r="AD6" t="n">
-        <v>280258.3020621839</v>
+        <v>399265.2383710444</v>
       </c>
       <c r="AE6" t="n">
-        <v>383461.773005152</v>
+        <v>546292.313478423</v>
       </c>
       <c r="AF6" t="n">
         <v>6.290273743626093e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>346864.7195815181</v>
+        <v>494154.9418061192</v>
       </c>
     </row>
     <row r="7">
@@ -29300,28 +29300,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.9595779197825</v>
+        <v>387.0338340363475</v>
       </c>
       <c r="AB7" t="n">
-        <v>366.6341160521029</v>
+        <v>529.5567664562155</v>
       </c>
       <c r="AC7" t="n">
-        <v>331.6430705903031</v>
+        <v>479.0166119032232</v>
       </c>
       <c r="AD7" t="n">
-        <v>267959.5779197825</v>
+        <v>387033.8340363475</v>
       </c>
       <c r="AE7" t="n">
-        <v>366634.1160521029</v>
+        <v>529556.7664562155</v>
       </c>
       <c r="AF7" t="n">
         <v>6.448642038791855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>331643.0705903031</v>
+        <v>479016.6119032232</v>
       </c>
     </row>
     <row r="8">
@@ -29406,28 +29406,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>265.0241050782044</v>
+        <v>374.1366578930018</v>
       </c>
       <c r="AB8" t="n">
-        <v>362.6176726063337</v>
+        <v>511.9102810736353</v>
       </c>
       <c r="AC8" t="n">
-        <v>328.0099508698844</v>
+        <v>463.0542823185586</v>
       </c>
       <c r="AD8" t="n">
-        <v>265024.1050782044</v>
+        <v>374136.6578930018</v>
       </c>
       <c r="AE8" t="n">
-        <v>362617.6726063337</v>
+        <v>511910.2810736353</v>
       </c>
       <c r="AF8" t="n">
         <v>6.648811756611778e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>328009.9508698844</v>
+        <v>463054.2823185587</v>
       </c>
     </row>
     <row r="9">
@@ -29512,28 +29512,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.9213360741526</v>
+        <v>364.1736708136678</v>
       </c>
       <c r="AB9" t="n">
-        <v>362.4770595211417</v>
+        <v>498.2784826157215</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.8827577001913</v>
+        <v>450.7234835731189</v>
       </c>
       <c r="AD9" t="n">
-        <v>264921.3360741526</v>
+        <v>364173.6708136678</v>
       </c>
       <c r="AE9" t="n">
-        <v>362477.0595211417</v>
+        <v>498278.4826157215</v>
       </c>
       <c r="AF9" t="n">
         <v>6.687522801715632e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>327882.7577001913</v>
+        <v>450723.4835731189</v>
       </c>
     </row>
     <row r="10">
@@ -29618,28 +29618,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.8101099604425</v>
+        <v>361.9899825829474</v>
       </c>
       <c r="AB10" t="n">
-        <v>345.9059456426136</v>
+        <v>495.2906640409244</v>
       </c>
       <c r="AC10" t="n">
-        <v>312.8931676726296</v>
+        <v>448.0208182096707</v>
       </c>
       <c r="AD10" t="n">
-        <v>252810.1099604425</v>
+        <v>361989.9825829475</v>
       </c>
       <c r="AE10" t="n">
-        <v>345905.9456426136</v>
+        <v>495290.6640409244</v>
       </c>
       <c r="AF10" t="n">
         <v>6.832174157930028e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>312893.1676726296</v>
+        <v>448020.8182096707</v>
       </c>
     </row>
     <row r="11">
@@ -29724,28 +29724,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.915281904544</v>
+        <v>360.9936693005637</v>
       </c>
       <c r="AB11" t="n">
-        <v>344.6816024195062</v>
+        <v>493.9274642537271</v>
       </c>
       <c r="AC11" t="n">
-        <v>311.7856740483587</v>
+        <v>446.7877202969005</v>
       </c>
       <c r="AD11" t="n">
-        <v>251915.281904544</v>
+        <v>360993.6693005637</v>
       </c>
       <c r="AE11" t="n">
-        <v>344681.6024195062</v>
+        <v>493927.4642537271</v>
       </c>
       <c r="AF11" t="n">
         <v>6.889590119785744e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>311785.6740483586</v>
+        <v>446787.7202969005</v>
       </c>
     </row>
     <row r="12">
@@ -29830,28 +29830,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.8221698950394</v>
+        <v>350.0403392157769</v>
       </c>
       <c r="AB12" t="n">
-        <v>343.1859583434045</v>
+        <v>478.9406348049029</v>
       </c>
       <c r="AC12" t="n">
-        <v>310.4327721437299</v>
+        <v>433.2312128165248</v>
       </c>
       <c r="AD12" t="n">
-        <v>250822.1698950394</v>
+        <v>350040.3392157769</v>
       </c>
       <c r="AE12" t="n">
-        <v>343185.9583434045</v>
+        <v>478940.6348049028</v>
       </c>
       <c r="AF12" t="n">
         <v>6.953132619592069e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>310432.77214373</v>
+        <v>433231.2128165248</v>
       </c>
     </row>
     <row r="13">
@@ -29936,28 +29936,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>239.2864090229722</v>
+        <v>348.4321162266962</v>
       </c>
       <c r="AB13" t="n">
-        <v>327.4022213963981</v>
+        <v>476.7401931614517</v>
       </c>
       <c r="AC13" t="n">
-        <v>296.155412898327</v>
+        <v>431.2407782351855</v>
       </c>
       <c r="AD13" t="n">
-        <v>239286.4090229722</v>
+        <v>348432.1162266962</v>
       </c>
       <c r="AE13" t="n">
-        <v>327402.2213963981</v>
+        <v>476740.1931614517</v>
       </c>
       <c r="AF13" t="n">
         <v>7.080271836354724e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>296155.412898327</v>
+        <v>431240.7782351855</v>
       </c>
     </row>
     <row r="14">
@@ -30042,28 +30042,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>238.700073122634</v>
+        <v>347.8457803263581</v>
       </c>
       <c r="AB14" t="n">
-        <v>326.5999707502417</v>
+        <v>475.9379425152947</v>
       </c>
       <c r="AC14" t="n">
-        <v>295.4297279278736</v>
+        <v>430.5150932647319</v>
       </c>
       <c r="AD14" t="n">
-        <v>238700.073122634</v>
+        <v>347845.780326358</v>
       </c>
       <c r="AE14" t="n">
-        <v>326599.9707502417</v>
+        <v>475937.9425152947</v>
       </c>
       <c r="AF14" t="n">
         <v>7.082603173804955e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>295429.7279278736</v>
+        <v>430515.0932647319</v>
       </c>
     </row>
     <row r="15">
@@ -30148,28 +30148,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>237.5753089785192</v>
+        <v>336.8607981069609</v>
       </c>
       <c r="AB15" t="n">
-        <v>325.0610188271726</v>
+        <v>460.9078052195031</v>
       </c>
       <c r="AC15" t="n">
-        <v>294.0376514164091</v>
+        <v>416.9194111775205</v>
       </c>
       <c r="AD15" t="n">
-        <v>237575.3089785192</v>
+        <v>336860.798106961</v>
       </c>
       <c r="AE15" t="n">
-        <v>325061.0188271726</v>
+        <v>460907.8052195031</v>
       </c>
       <c r="AF15" t="n">
         <v>7.161597561362817e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>294037.6514164091</v>
+        <v>416919.4111775205</v>
       </c>
     </row>
     <row r="16">
@@ -30254,28 +30254,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>236.6350672798198</v>
+        <v>335.9205564082615</v>
       </c>
       <c r="AB16" t="n">
-        <v>323.7745386544765</v>
+        <v>459.6213250468062</v>
       </c>
       <c r="AC16" t="n">
-        <v>292.8739511058084</v>
+        <v>415.7557108669196</v>
       </c>
       <c r="AD16" t="n">
-        <v>236635.0672798198</v>
+        <v>335920.5564082615</v>
       </c>
       <c r="AE16" t="n">
-        <v>323774.5386544765</v>
+        <v>459621.3250468062</v>
       </c>
       <c r="AF16" t="n">
         <v>7.221724380718803e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>292873.9511058084</v>
+        <v>415755.7108669196</v>
       </c>
     </row>
     <row r="17">
@@ -30360,28 +30360,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>235.6754879053396</v>
+        <v>334.8594918072961</v>
       </c>
       <c r="AB17" t="n">
-        <v>322.461599820659</v>
+        <v>458.1695296488988</v>
       </c>
       <c r="AC17" t="n">
-        <v>291.6863173115689</v>
+        <v>414.4424727841809</v>
       </c>
       <c r="AD17" t="n">
-        <v>235675.4879053396</v>
+        <v>334859.4918072961</v>
       </c>
       <c r="AE17" t="n">
-        <v>322461.599820659</v>
+        <v>458169.5296488989</v>
       </c>
       <c r="AF17" t="n">
         <v>7.280441554174648e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>291686.3173115689</v>
+        <v>414442.4727841809</v>
       </c>
     </row>
     <row r="18">
@@ -30466,28 +30466,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>235.8046063849775</v>
+        <v>334.988610286934</v>
       </c>
       <c r="AB18" t="n">
-        <v>322.6382654208049</v>
+        <v>458.3461952490449</v>
       </c>
       <c r="AC18" t="n">
-        <v>291.8461221947887</v>
+        <v>414.6022776674006</v>
       </c>
       <c r="AD18" t="n">
-        <v>235804.6063849775</v>
+        <v>334988.610286934</v>
       </c>
       <c r="AE18" t="n">
-        <v>322638.2654208049</v>
+        <v>458346.1952490449</v>
       </c>
       <c r="AF18" t="n">
         <v>7.271766810173783e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>291846.1221947887</v>
+        <v>414602.2776674006</v>
       </c>
     </row>
     <row r="19">
@@ -30572,28 +30572,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>235.7418551502315</v>
+        <v>334.9258590521879</v>
       </c>
       <c r="AB19" t="n">
-        <v>322.5524064130362</v>
+        <v>458.2603362412761</v>
       </c>
       <c r="AC19" t="n">
-        <v>291.7684574502175</v>
+        <v>414.5246129228295</v>
       </c>
       <c r="AD19" t="n">
-        <v>235741.8551502315</v>
+        <v>334925.8590521879</v>
       </c>
       <c r="AE19" t="n">
-        <v>322552.4064130362</v>
+        <v>458260.3362412761</v>
       </c>
       <c r="AF19" t="n">
         <v>7.27474875342408e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>291768.4574502175</v>
+        <v>414524.6129228295</v>
       </c>
     </row>
   </sheetData>
@@ -30869,28 +30869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.8354213741426</v>
+        <v>357.8959309153899</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.5723337186131</v>
+        <v>489.6890019325598</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.6868337989192</v>
+        <v>442.9537708709463</v>
       </c>
       <c r="AD2" t="n">
-        <v>251835.4213741426</v>
+        <v>357895.9309153899</v>
       </c>
       <c r="AE2" t="n">
-        <v>344572.3337186131</v>
+        <v>489689.0019325598</v>
       </c>
       <c r="AF2" t="n">
         <v>8.220577429091813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>311686.8337989192</v>
+        <v>442953.7708709463</v>
       </c>
     </row>
     <row r="3">
@@ -30975,28 +30975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.8580703061823</v>
+        <v>334.3016548327803</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.4479053502304</v>
+        <v>457.4062724903361</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.387614032705</v>
+        <v>413.752059817593</v>
       </c>
       <c r="AD3" t="n">
-        <v>237858.0703061823</v>
+        <v>334301.6548327804</v>
       </c>
       <c r="AE3" t="n">
-        <v>325447.9053502304</v>
+        <v>457406.2724903361</v>
       </c>
       <c r="AF3" t="n">
         <v>8.716710357510569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>294387.614032705</v>
+        <v>413752.059817593</v>
       </c>
     </row>
     <row r="4">
@@ -31081,28 +31081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.3086661309469</v>
+        <v>321.7180852387639</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.2772569170438</v>
+        <v>440.1888774238927</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.8557081868198</v>
+        <v>398.1778687715254</v>
       </c>
       <c r="AD4" t="n">
-        <v>225308.6661309469</v>
+        <v>321718.0852387639</v>
       </c>
       <c r="AE4" t="n">
-        <v>308277.2569170438</v>
+        <v>440188.8774238927</v>
       </c>
       <c r="AF4" t="n">
         <v>9.073073231743138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>278855.7081868198</v>
+        <v>398177.8687715254</v>
       </c>
     </row>
     <row r="5">
@@ -31187,28 +31187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.942835510426</v>
+        <v>309.4195744259473</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.357781920111</v>
+        <v>423.3615123577928</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.5510041369566</v>
+        <v>382.9564838099787</v>
       </c>
       <c r="AD5" t="n">
-        <v>212942.835510426</v>
+        <v>309419.5744259473</v>
       </c>
       <c r="AE5" t="n">
-        <v>291357.781920111</v>
+        <v>423361.5123577928</v>
       </c>
       <c r="AF5" t="n">
         <v>9.406558489358311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>263551.0041369566</v>
+        <v>382956.4838099787</v>
       </c>
     </row>
     <row r="6">
@@ -31293,28 +31293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>211.4033740892061</v>
+        <v>298.1958681823738</v>
       </c>
       <c r="AB6" t="n">
-        <v>289.2514228873544</v>
+        <v>408.0047423203624</v>
       </c>
       <c r="AC6" t="n">
-        <v>261.6456730539921</v>
+        <v>369.0653423515586</v>
       </c>
       <c r="AD6" t="n">
-        <v>211403.3740892061</v>
+        <v>298195.8681823738</v>
       </c>
       <c r="AE6" t="n">
-        <v>289251.4228873543</v>
+        <v>408004.7423203624</v>
       </c>
       <c r="AF6" t="n">
         <v>9.584909139615255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>261645.6730539921</v>
+        <v>369065.3423515586</v>
       </c>
     </row>
     <row r="7">
@@ -31399,28 +31399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.9721931801259</v>
+        <v>297.7646872732935</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.6614621451919</v>
+        <v>407.4147815781996</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.1120173370464</v>
+        <v>368.5316866346128</v>
       </c>
       <c r="AD7" t="n">
-        <v>210972.1931801259</v>
+        <v>297764.6872732936</v>
       </c>
       <c r="AE7" t="n">
-        <v>288661.4621451919</v>
+        <v>407414.7815781996</v>
       </c>
       <c r="AF7" t="n">
         <v>9.636823731170124e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>261112.0173370464</v>
+        <v>368531.6866346127</v>
       </c>
     </row>
     <row r="8">
@@ -31505,28 +31505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>210.9547923189744</v>
+        <v>297.7472864121421</v>
       </c>
       <c r="AB8" t="n">
-        <v>288.6376535192927</v>
+        <v>407.3909729523004</v>
       </c>
       <c r="AC8" t="n">
-        <v>261.0904809729873</v>
+        <v>368.5101502705537</v>
       </c>
       <c r="AD8" t="n">
-        <v>210954.7923189744</v>
+        <v>297747.2864121421</v>
       </c>
       <c r="AE8" t="n">
-        <v>288637.6535192927</v>
+        <v>407390.9729523004</v>
       </c>
       <c r="AF8" t="n">
         <v>9.640614105520936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH8" t="n">
-        <v>261090.4809729873</v>
+        <v>368510.1502705537</v>
       </c>
     </row>
   </sheetData>
@@ -31802,28 +31802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.4965305661773</v>
+        <v>413.3450544266412</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.9971924555339</v>
+        <v>565.5569389633359</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.5855305790921</v>
+        <v>511.5809784728236</v>
       </c>
       <c r="AD2" t="n">
-        <v>286496.5305661773</v>
+        <v>413345.0544266413</v>
       </c>
       <c r="AE2" t="n">
-        <v>391997.192455534</v>
+        <v>565556.9389633359</v>
       </c>
       <c r="AF2" t="n">
         <v>6.6801345559332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>354585.5305790921</v>
+        <v>511580.9784728236</v>
       </c>
     </row>
     <row r="3">
@@ -31908,28 +31908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.9627714919876</v>
+        <v>377.2866364287663</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.374973872257</v>
+        <v>516.2202206735135</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.1223447869198</v>
+        <v>466.9528873320627</v>
       </c>
       <c r="AD3" t="n">
-        <v>269962.7714919876</v>
+        <v>377286.6364287663</v>
       </c>
       <c r="AE3" t="n">
-        <v>369374.973872257</v>
+        <v>516220.2206735135</v>
       </c>
       <c r="AF3" t="n">
         <v>7.233346273864777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>334122.3447869198</v>
+        <v>466952.8873320627</v>
       </c>
     </row>
     <row r="4">
@@ -32014,28 +32014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.1721516647726</v>
+        <v>353.7673470435641</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.5060394252875</v>
+        <v>484.0400913388621</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.0542349609588</v>
+        <v>437.8439843760153</v>
       </c>
       <c r="AD4" t="n">
-        <v>256172.1516647726</v>
+        <v>353767.3470435641</v>
       </c>
       <c r="AE4" t="n">
-        <v>350506.0394252875</v>
+        <v>484040.0913388621</v>
       </c>
       <c r="AF4" t="n">
         <v>7.600431259870758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>317054.2349609588</v>
+        <v>437843.9843760153</v>
       </c>
     </row>
     <row r="5">
@@ -32120,28 +32120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.5042530844892</v>
+        <v>341.0652830444998</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.1732617195102</v>
+        <v>466.6605669998281</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.375673232709</v>
+        <v>422.123137447583</v>
       </c>
       <c r="AD5" t="n">
-        <v>243504.2530844892</v>
+        <v>341065.2830444998</v>
       </c>
       <c r="AE5" t="n">
-        <v>333173.2617195102</v>
+        <v>466660.566999828</v>
       </c>
       <c r="AF5" t="n">
         <v>7.881682595947416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>301375.673232709</v>
+        <v>422123.137447583</v>
       </c>
     </row>
     <row r="6">
@@ -32226,28 +32226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.5972520853873</v>
+        <v>328.2256018531021</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.5133335358511</v>
+        <v>449.0927487470013</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.4011838090279</v>
+        <v>406.2319671122184</v>
       </c>
       <c r="AD6" t="n">
-        <v>230597.2520853873</v>
+        <v>328225.6018531021</v>
       </c>
       <c r="AE6" t="n">
-        <v>315513.3335358511</v>
+        <v>449092.7487470013</v>
       </c>
       <c r="AF6" t="n">
         <v>8.18877632125011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>285401.1838090279</v>
+        <v>406231.9671122184</v>
       </c>
     </row>
     <row r="7">
@@ -32332,28 +32332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.3572605022672</v>
+        <v>327.985610269982</v>
       </c>
       <c r="AB7" t="n">
-        <v>315.184966464145</v>
+        <v>448.764381675295</v>
       </c>
       <c r="AC7" t="n">
-        <v>285.1041556297792</v>
+        <v>405.9349389329697</v>
       </c>
       <c r="AD7" t="n">
-        <v>230357.2605022672</v>
+        <v>327985.610269982</v>
       </c>
       <c r="AE7" t="n">
-        <v>315184.966464145</v>
+        <v>448764.381675295</v>
       </c>
       <c r="AF7" t="n">
         <v>8.216710713413487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.50520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>285104.1556297792</v>
+        <v>405934.9389329697</v>
       </c>
     </row>
     <row r="8">
@@ -32438,28 +32438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>228.7291727287872</v>
+        <v>326.2560372700169</v>
       </c>
       <c r="AB8" t="n">
-        <v>312.9573449463075</v>
+        <v>446.3979035933671</v>
       </c>
       <c r="AC8" t="n">
-        <v>283.0891351831169</v>
+        <v>403.7943141978081</v>
       </c>
       <c r="AD8" t="n">
-        <v>228729.1727287872</v>
+        <v>326256.0372700169</v>
       </c>
       <c r="AE8" t="n">
-        <v>312957.3449463075</v>
+        <v>446397.9035933671</v>
       </c>
       <c r="AF8" t="n">
         <v>8.360628209603228e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>283089.1351831169</v>
+        <v>403794.3141978081</v>
       </c>
     </row>
     <row r="9">
@@ -32544,28 +32544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>217.4605202617739</v>
+        <v>315.0547046107076</v>
       </c>
       <c r="AB9" t="n">
-        <v>297.5390775030869</v>
+        <v>431.0717460809801</v>
       </c>
       <c r="AC9" t="n">
-        <v>269.1423655449981</v>
+        <v>389.930863648006</v>
       </c>
       <c r="AD9" t="n">
-        <v>217460.5202617739</v>
+        <v>315054.7046107076</v>
       </c>
       <c r="AE9" t="n">
-        <v>297539.0775030869</v>
+        <v>431071.7460809801</v>
       </c>
       <c r="AF9" t="n">
         <v>8.494331809098871e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>269142.3655449981</v>
+        <v>389930.8636480061</v>
       </c>
     </row>
     <row r="10">
@@ -32650,28 +32650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>216.5885869606507</v>
+        <v>314.1827713095845</v>
       </c>
       <c r="AB10" t="n">
-        <v>296.3460598935084</v>
+        <v>429.878728471401</v>
       </c>
       <c r="AC10" t="n">
-        <v>268.0632078616667</v>
+        <v>388.8517059646745</v>
       </c>
       <c r="AD10" t="n">
-        <v>216588.5869606507</v>
+        <v>314182.7713095845</v>
       </c>
       <c r="AE10" t="n">
-        <v>296346.0598935084</v>
+        <v>429878.728471401</v>
       </c>
       <c r="AF10" t="n">
         <v>8.559983783632626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>268063.2078616667</v>
+        <v>388851.7059646745</v>
       </c>
     </row>
     <row r="11">
@@ -32756,28 +32756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>216.4727972092141</v>
+        <v>314.0669815581479</v>
       </c>
       <c r="AB11" t="n">
-        <v>296.1876312473096</v>
+        <v>429.7202998252021</v>
       </c>
       <c r="AC11" t="n">
-        <v>267.9198994231051</v>
+        <v>388.7083975261128</v>
       </c>
       <c r="AD11" t="n">
-        <v>216472.7972092141</v>
+        <v>314066.9815581479</v>
       </c>
       <c r="AE11" t="n">
-        <v>296187.6312473096</v>
+        <v>429720.2998252021</v>
       </c>
       <c r="AF11" t="n">
         <v>8.55832248718238e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>267919.8994231051</v>
+        <v>388708.3975261128</v>
       </c>
     </row>
   </sheetData>
@@ -33053,28 +33053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.9745791753984</v>
+        <v>314.0705138409766</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.6106797042721</v>
+        <v>429.7251328504016</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.0162569396148</v>
+        <v>388.7127692941704</v>
       </c>
       <c r="AD2" t="n">
-        <v>218974.5791753985</v>
+        <v>314070.5138409766</v>
       </c>
       <c r="AE2" t="n">
-        <v>299610.6797042721</v>
+        <v>429725.1328504016</v>
       </c>
       <c r="AF2" t="n">
         <v>1.038939243038489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>271016.2569396148</v>
+        <v>388712.7692941704</v>
       </c>
     </row>
     <row r="3">
@@ -33159,28 +33159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.1975425920632</v>
+        <v>291.8079006872159</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.1285745678903</v>
+        <v>399.2644433762512</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.2026193811551</v>
+        <v>361.1592052715866</v>
       </c>
       <c r="AD3" t="n">
-        <v>206197.5425920632</v>
+        <v>291807.9006872158</v>
       </c>
       <c r="AE3" t="n">
-        <v>282128.5745678903</v>
+        <v>399264.4433762511</v>
       </c>
       <c r="AF3" t="n">
         <v>1.091981177887403e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>255202.6193811551</v>
+        <v>361159.2052715867</v>
       </c>
     </row>
     <row r="4">
@@ -33265,28 +33265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.7242523728843</v>
+        <v>291.3346104680369</v>
       </c>
       <c r="AB4" t="n">
-        <v>281.4809980099192</v>
+        <v>398.6168668182797</v>
       </c>
       <c r="AC4" t="n">
-        <v>254.6168466209971</v>
+        <v>360.5734325114287</v>
       </c>
       <c r="AD4" t="n">
-        <v>205724.2523728843</v>
+        <v>291334.610468037</v>
       </c>
       <c r="AE4" t="n">
-        <v>281480.9980099192</v>
+        <v>398616.8668182797</v>
       </c>
       <c r="AF4" t="n">
         <v>1.09827870912543e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>254616.8466209971</v>
+        <v>360573.4325114287</v>
       </c>
     </row>
   </sheetData>
@@ -33562,28 +33562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.151005672843</v>
+        <v>285.6920861829623</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.2236801175208</v>
+        <v>390.8965161608378</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9567183660463</v>
+        <v>353.5899012851528</v>
       </c>
       <c r="AD2" t="n">
-        <v>201151.005672843</v>
+        <v>285692.0861829623</v>
       </c>
       <c r="AE2" t="n">
-        <v>275223.6801175207</v>
+        <v>390896.5161608378</v>
       </c>
       <c r="AF2" t="n">
         <v>1.243725235347008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>248956.7183660463</v>
+        <v>353589.9012851528</v>
       </c>
     </row>
   </sheetData>
@@ -58760,28 +58760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.9495544701318</v>
+        <v>501.5755117265458</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.6035926302938</v>
+        <v>686.2777430941258</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.2084427371776</v>
+        <v>620.7803584900836</v>
       </c>
       <c r="AD2" t="n">
-        <v>362949.5544701318</v>
+        <v>501575.5117265458</v>
       </c>
       <c r="AE2" t="n">
-        <v>496603.5926302938</v>
+        <v>686277.7430941258</v>
       </c>
       <c r="AF2" t="n">
         <v>5.073686172495861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>449208.4427371775</v>
+        <v>620780.3584900836</v>
       </c>
     </row>
     <row r="3">
@@ -58866,28 +58866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.683591317579</v>
+        <v>450.4702057342604</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.1416813191631</v>
+        <v>616.3532088285028</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.1351769967909</v>
+        <v>557.5293236350714</v>
       </c>
       <c r="AD3" t="n">
-        <v>321683.591317579</v>
+        <v>450470.2057342604</v>
       </c>
       <c r="AE3" t="n">
-        <v>440141.6813191631</v>
+        <v>616353.2088285028</v>
       </c>
       <c r="AF3" t="n">
         <v>5.602635802451543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>398135.1769967909</v>
+        <v>557529.3236350714</v>
       </c>
     </row>
     <row r="4">
@@ -58972,28 +58972,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.1971201217724</v>
+        <v>422.9154037008921</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.5334788115337</v>
+        <v>578.6515130543777</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.1162485530459</v>
+        <v>523.4258247909664</v>
       </c>
       <c r="AD4" t="n">
-        <v>294197.1201217724</v>
+        <v>422915.4037008921</v>
       </c>
       <c r="AE4" t="n">
-        <v>402533.4788115337</v>
+        <v>578651.5130543776</v>
       </c>
       <c r="AF4" t="n">
         <v>6.033429830972149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364116.2485530459</v>
+        <v>523425.8247909665</v>
       </c>
     </row>
     <row r="5">
@@ -59078,28 +59078,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.2141638496215</v>
+        <v>399.0599502000849</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.4013811554835</v>
+        <v>546.0114291462415</v>
       </c>
       <c r="AC5" t="n">
-        <v>346.8100914452214</v>
+        <v>493.9008646803773</v>
       </c>
       <c r="AD5" t="n">
-        <v>280214.1638496214</v>
+        <v>399059.9502000849</v>
       </c>
       <c r="AE5" t="n">
-        <v>383401.3811554835</v>
+        <v>546011.4291462415</v>
       </c>
       <c r="AF5" t="n">
         <v>6.307846894019032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>346810.0914452214</v>
+        <v>493900.8646803773</v>
       </c>
     </row>
     <row r="6">
@@ -59184,28 +59184,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>277.5016035624186</v>
+        <v>386.4075728765214</v>
       </c>
       <c r="AB6" t="n">
-        <v>379.6899365008186</v>
+        <v>528.6998883086491</v>
       </c>
       <c r="AC6" t="n">
-        <v>343.4528618593524</v>
+        <v>478.2415130034245</v>
       </c>
       <c r="AD6" t="n">
-        <v>277501.6035624185</v>
+        <v>386407.5728765214</v>
       </c>
       <c r="AE6" t="n">
-        <v>379689.9365008186</v>
+        <v>528699.8883086491</v>
       </c>
       <c r="AF6" t="n">
         <v>6.505700384678284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>343452.8618593524</v>
+        <v>478241.5130034245</v>
       </c>
     </row>
     <row r="7">
@@ -59290,28 +59290,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.1807941998022</v>
+        <v>374.0525980951242</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.8320615751398</v>
+        <v>511.7952667497227</v>
       </c>
       <c r="AC7" t="n">
-        <v>328.2038788564045</v>
+        <v>462.9502448002966</v>
       </c>
       <c r="AD7" t="n">
-        <v>265180.7941998022</v>
+        <v>374052.5980951242</v>
       </c>
       <c r="AE7" t="n">
-        <v>362832.0615751399</v>
+        <v>511795.2667497227</v>
       </c>
       <c r="AF7" t="n">
         <v>6.674525815878344e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>328203.8788564045</v>
+        <v>462950.2448002966</v>
       </c>
     </row>
     <row r="8">
@@ -59396,28 +59396,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>251.9264622613678</v>
+        <v>360.8655859643974</v>
       </c>
       <c r="AB8" t="n">
-        <v>344.696899876955</v>
+        <v>493.7522149825463</v>
       </c>
       <c r="AC8" t="n">
-        <v>311.7995115379387</v>
+        <v>446.6291965701974</v>
       </c>
       <c r="AD8" t="n">
-        <v>251926.4622613678</v>
+        <v>360865.5859643974</v>
       </c>
       <c r="AE8" t="n">
-        <v>344696.899876955</v>
+        <v>493752.2149825463</v>
       </c>
       <c r="AF8" t="n">
         <v>6.902233591598097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH8" t="n">
-        <v>311799.5115379387</v>
+        <v>446629.1965701974</v>
       </c>
     </row>
     <row r="9">
@@ -59502,28 +59502,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.7097593235585</v>
+        <v>360.6488830265882</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.4003973571857</v>
+        <v>493.4557124627769</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.5313068025121</v>
+        <v>446.3609918347709</v>
       </c>
       <c r="AD9" t="n">
-        <v>251709.7593235585</v>
+        <v>360648.8830265882</v>
       </c>
       <c r="AE9" t="n">
-        <v>344400.3973571857</v>
+        <v>493455.7124627769</v>
       </c>
       <c r="AF9" t="n">
         <v>6.943820280197133e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>311531.3068025121</v>
+        <v>446360.9918347709</v>
       </c>
     </row>
     <row r="10">
@@ -59608,28 +59608,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>250.896684247185</v>
+        <v>359.7343227237294</v>
       </c>
       <c r="AB10" t="n">
-        <v>343.2879121673512</v>
+        <v>492.2043707088525</v>
       </c>
       <c r="AC10" t="n">
-        <v>310.5249956378123</v>
+        <v>445.2290763815718</v>
       </c>
       <c r="AD10" t="n">
-        <v>250896.684247185</v>
+        <v>359734.3227237294</v>
       </c>
       <c r="AE10" t="n">
-        <v>343287.9121673512</v>
+        <v>492204.3707088525</v>
       </c>
       <c r="AF10" t="n">
         <v>6.996974127214442e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>310524.9956378123</v>
+        <v>445229.0763815718</v>
       </c>
     </row>
     <row r="11">
@@ -59714,28 +59714,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>249.257182620576</v>
+        <v>348.256489287245</v>
       </c>
       <c r="AB11" t="n">
-        <v>341.0446737121189</v>
+        <v>476.4998926347808</v>
       </c>
       <c r="AC11" t="n">
-        <v>308.4958487123417</v>
+        <v>431.0234116535162</v>
       </c>
       <c r="AD11" t="n">
-        <v>249257.182620576</v>
+        <v>348256.489287245</v>
       </c>
       <c r="AE11" t="n">
-        <v>341044.6737121189</v>
+        <v>476499.8926347808</v>
       </c>
       <c r="AF11" t="n">
         <v>7.128288916115239e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>308495.8487123417</v>
+        <v>431023.4116535162</v>
       </c>
     </row>
     <row r="12">
@@ -59820,28 +59820,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.3077272949798</v>
+        <v>347.2126855792284</v>
       </c>
       <c r="AB12" t="n">
-        <v>326.0631458797691</v>
+        <v>475.071714352103</v>
       </c>
       <c r="AC12" t="n">
-        <v>294.9441368696002</v>
+        <v>429.7315367016763</v>
       </c>
       <c r="AD12" t="n">
-        <v>238307.7272949798</v>
+        <v>347212.6855792284</v>
       </c>
       <c r="AE12" t="n">
-        <v>326063.1458797691</v>
+        <v>475071.714352103</v>
       </c>
       <c r="AF12" t="n">
         <v>7.191632878881982e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>294944.1368696002</v>
+        <v>429731.5367016763</v>
       </c>
     </row>
     <row r="13">
@@ -59926,28 +59926,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>237.2492531651642</v>
+        <v>336.3158796395375</v>
       </c>
       <c r="AB13" t="n">
-        <v>324.6148948787732</v>
+        <v>460.1622237322682</v>
       </c>
       <c r="AC13" t="n">
-        <v>293.6341049115059</v>
+        <v>416.244986940997</v>
       </c>
       <c r="AD13" t="n">
-        <v>237249.2531651642</v>
+        <v>336315.8796395375</v>
       </c>
       <c r="AE13" t="n">
-        <v>324614.8948787732</v>
+        <v>460162.2237322681</v>
       </c>
       <c r="AF13" t="n">
         <v>7.261145992805138e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>293634.1049115059</v>
+        <v>416244.986940997</v>
       </c>
     </row>
     <row r="14">
@@ -60032,28 +60032,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>236.1167776615741</v>
+        <v>335.1834041359473</v>
       </c>
       <c r="AB14" t="n">
-        <v>323.0653919334688</v>
+        <v>458.612720786963</v>
       </c>
       <c r="AC14" t="n">
-        <v>292.2324843525599</v>
+        <v>414.8433663820508</v>
       </c>
       <c r="AD14" t="n">
-        <v>236116.7776615741</v>
+        <v>335183.4041359473</v>
       </c>
       <c r="AE14" t="n">
-        <v>323065.3919334689</v>
+        <v>458612.720786963</v>
       </c>
       <c r="AF14" t="n">
         <v>7.331209923795831e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>292232.4843525599</v>
+        <v>414843.3663820507</v>
       </c>
     </row>
     <row r="15">
@@ -60138,28 +60138,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>234.5937775086846</v>
+        <v>333.5589187565727</v>
       </c>
       <c r="AB15" t="n">
-        <v>320.9815559342618</v>
+        <v>456.3900282236656</v>
       </c>
       <c r="AC15" t="n">
-        <v>290.3475267364342</v>
+        <v>412.8328044774259</v>
       </c>
       <c r="AD15" t="n">
-        <v>234593.7775086846</v>
+        <v>333558.9187565726</v>
       </c>
       <c r="AE15" t="n">
-        <v>320981.5559342618</v>
+        <v>456390.0282236656</v>
       </c>
       <c r="AF15" t="n">
         <v>7.427878319148556e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>290347.5267364343</v>
+        <v>412832.8044774259</v>
       </c>
     </row>
     <row r="16">
@@ -60244,28 +60244,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>233.9327036496865</v>
+        <v>332.8978448975745</v>
       </c>
       <c r="AB16" t="n">
-        <v>320.0770455158607</v>
+        <v>455.485517805264</v>
       </c>
       <c r="AC16" t="n">
-        <v>289.5293415228767</v>
+        <v>412.0146192638682</v>
       </c>
       <c r="AD16" t="n">
-        <v>233932.7036496865</v>
+        <v>332897.8448975745</v>
       </c>
       <c r="AE16" t="n">
-        <v>320077.0455158607</v>
+        <v>455485.517805264</v>
       </c>
       <c r="AF16" t="n">
         <v>7.458338502983347e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>289529.3415228767</v>
+        <v>412014.6192638681</v>
       </c>
     </row>
     <row r="17">
@@ -60350,28 +60350,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>233.91251689849</v>
+        <v>332.877658146378</v>
       </c>
       <c r="AB17" t="n">
-        <v>320.0494251122971</v>
+        <v>455.4578974017004</v>
       </c>
       <c r="AC17" t="n">
-        <v>289.5043571718637</v>
+        <v>411.9896349128552</v>
       </c>
       <c r="AD17" t="n">
-        <v>233912.51689849</v>
+        <v>332877.658146378</v>
       </c>
       <c r="AE17" t="n">
-        <v>320049.4251122971</v>
+        <v>455457.8974017004</v>
       </c>
       <c r="AF17" t="n">
         <v>7.461092588321033e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH17" t="n">
-        <v>289504.3571718637</v>
+        <v>411989.6349128552</v>
       </c>
     </row>
   </sheetData>
@@ -60647,28 +60647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.0051677505388</v>
+        <v>291.0306765082834</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.9194058876521</v>
+        <v>398.2010109659249</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.0632380275881</v>
+        <v>360.1972653579653</v>
       </c>
       <c r="AD2" t="n">
-        <v>198005.1677505388</v>
+        <v>291030.6765082834</v>
       </c>
       <c r="AE2" t="n">
-        <v>270919.4058876521</v>
+        <v>398201.0109659249</v>
       </c>
       <c r="AF2" t="n">
         <v>1.374110264050332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>245063.2380275881</v>
+        <v>360197.2653579653</v>
       </c>
     </row>
   </sheetData>
@@ -60944,28 +60944,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.1873700263137</v>
+        <v>311.4480745816139</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.9558765990784</v>
+        <v>426.1369957618867</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.3783332886673</v>
+        <v>385.4670789734014</v>
       </c>
       <c r="AD2" t="n">
-        <v>211187.3700263137</v>
+        <v>311448.0745816139</v>
       </c>
       <c r="AE2" t="n">
-        <v>288955.8765990784</v>
+        <v>426136.9957618868</v>
       </c>
       <c r="AF2" t="n">
         <v>1.64490476097478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>261378.3332886673</v>
+        <v>385467.0789734015</v>
       </c>
     </row>
   </sheetData>
@@ -61241,28 +61241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.6413612684502</v>
+        <v>344.4319829640614</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.5196386011631</v>
+        <v>471.2670343580901</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.3570625663561</v>
+        <v>426.2899700263902</v>
       </c>
       <c r="AD2" t="n">
-        <v>238641.3612684502</v>
+        <v>344431.9829640614</v>
       </c>
       <c r="AE2" t="n">
-        <v>326519.6386011631</v>
+        <v>471267.0343580901</v>
       </c>
       <c r="AF2" t="n">
         <v>8.682856257639288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>295357.0625663562</v>
+        <v>426289.9700263902</v>
       </c>
     </row>
     <row r="3">
@@ -61347,28 +61347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.0186122583855</v>
+        <v>321.2229641805602</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.8803924123317</v>
+        <v>439.5114309488589</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.4967198734345</v>
+        <v>397.5650768372667</v>
       </c>
       <c r="AD3" t="n">
-        <v>225018.6122583855</v>
+        <v>321222.9641805602</v>
       </c>
       <c r="AE3" t="n">
-        <v>307880.3924123317</v>
+        <v>439511.4309488589</v>
       </c>
       <c r="AF3" t="n">
         <v>9.193268625135211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>278496.7198734345</v>
+        <v>397565.0768372667</v>
       </c>
     </row>
     <row r="4">
@@ -61453,28 +61453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.3934099636971</v>
+        <v>308.5635964670907</v>
       </c>
       <c r="AB4" t="n">
-        <v>290.6060336481323</v>
+        <v>422.190325551403</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.8710016649701</v>
+        <v>381.8970734286198</v>
       </c>
       <c r="AD4" t="n">
-        <v>212393.409963697</v>
+        <v>308563.5964670908</v>
       </c>
       <c r="AE4" t="n">
-        <v>290606.0336481323</v>
+        <v>422190.325551403</v>
       </c>
       <c r="AF4" t="n">
         <v>9.589057435327374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>262871.0016649701</v>
+        <v>381897.0734286198</v>
       </c>
     </row>
     <row r="5">
@@ -61559,28 +61559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.6435254498918</v>
+        <v>306.7122267268003</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.2117644568889</v>
+        <v>419.657199796069</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.7052381649602</v>
+        <v>379.6057056401106</v>
       </c>
       <c r="AD5" t="n">
-        <v>210643.5254498918</v>
+        <v>306712.2267268003</v>
       </c>
       <c r="AE5" t="n">
-        <v>288211.7644568889</v>
+        <v>419657.199796069</v>
       </c>
       <c r="AF5" t="n">
         <v>9.801810449703574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>260705.2381649602</v>
+        <v>379605.7056401106</v>
       </c>
     </row>
     <row r="6">
@@ -61665,28 +61665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.6125460579074</v>
+        <v>296.1291429801603</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.8011329691759</v>
+        <v>405.1769577212129</v>
       </c>
       <c r="AC6" t="n">
-        <v>259.4292353666003</v>
+        <v>366.5074375457314</v>
       </c>
       <c r="AD6" t="n">
-        <v>209612.5460579074</v>
+        <v>296129.1429801603</v>
       </c>
       <c r="AE6" t="n">
-        <v>286801.1329691759</v>
+        <v>405176.9577212129</v>
       </c>
       <c r="AF6" t="n">
         <v>9.946151225567568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>259429.2353666003</v>
+        <v>366507.4375457314</v>
       </c>
     </row>
     <row r="7">
@@ -61771,28 +61771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>209.590476459966</v>
+        <v>296.1070733822189</v>
       </c>
       <c r="AB7" t="n">
-        <v>286.7709363716305</v>
+        <v>405.1467611236675</v>
       </c>
       <c r="AC7" t="n">
-        <v>259.4019206899435</v>
+        <v>366.4801228690745</v>
       </c>
       <c r="AD7" t="n">
-        <v>209590.476459966</v>
+        <v>296107.0733822188</v>
       </c>
       <c r="AE7" t="n">
-        <v>286770.9363716305</v>
+        <v>405146.7611236675</v>
       </c>
       <c r="AF7" t="n">
         <v>9.947334346681209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>259401.9206899435</v>
+        <v>366480.1228690745</v>
       </c>
     </row>
   </sheetData>
@@ -62068,28 +62068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.7130642193218</v>
+        <v>399.4475245083556</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.8204868850112</v>
+        <v>546.5417254133893</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.9028825226682</v>
+        <v>494.380550216064</v>
       </c>
       <c r="AD2" t="n">
-        <v>282713.0642193218</v>
+        <v>399447.5245083557</v>
       </c>
       <c r="AE2" t="n">
-        <v>386820.4868850113</v>
+        <v>546541.7254133893</v>
       </c>
       <c r="AF2" t="n">
         <v>7.010294658892884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>349902.8825226682</v>
+        <v>494380.550216064</v>
       </c>
     </row>
     <row r="3">
@@ -62174,28 +62174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.2805368974541</v>
+        <v>364.3801536200165</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.0225809991471</v>
+        <v>498.5610015007462</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.4260399354891</v>
+        <v>450.9790392522747</v>
       </c>
       <c r="AD3" t="n">
-        <v>257280.5368974541</v>
+        <v>364380.1536200165</v>
       </c>
       <c r="AE3" t="n">
-        <v>352022.5809991471</v>
+        <v>498561.0015007462</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5303000998343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>318426.0399354891</v>
+        <v>450979.0392522747</v>
       </c>
     </row>
     <row r="4">
@@ -62280,28 +62280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.5359670407271</v>
+        <v>350.6014183445085</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.2166541535559</v>
+        <v>479.7083280218976</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.4149243537511</v>
+        <v>433.9256384703539</v>
       </c>
       <c r="AD4" t="n">
-        <v>243535.9670407271</v>
+        <v>350601.4183445086</v>
       </c>
       <c r="AE4" t="n">
-        <v>333216.6541535559</v>
+        <v>479708.3280218976</v>
       </c>
       <c r="AF4" t="n">
         <v>7.917930228986903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>301414.9243537511</v>
+        <v>433925.6384703539</v>
       </c>
     </row>
     <row r="5">
@@ -62386,28 +62386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.0222556218215</v>
+        <v>338.0535415068219</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.0948421242329</v>
+        <v>462.539769359318</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.9271940338871</v>
+        <v>418.3956229503074</v>
       </c>
       <c r="AD5" t="n">
-        <v>231022.2556218215</v>
+        <v>338053.5415068219</v>
       </c>
       <c r="AE5" t="n">
-        <v>316094.8421242329</v>
+        <v>462539.769359318</v>
       </c>
       <c r="AF5" t="n">
         <v>8.208212622914292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>285927.1940338871</v>
+        <v>418395.6229503074</v>
       </c>
     </row>
     <row r="6">
@@ -62492,28 +62492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.3922218377228</v>
+        <v>325.6540245408397</v>
       </c>
       <c r="AB6" t="n">
-        <v>312.4963138719293</v>
+        <v>445.5742032183798</v>
       </c>
       <c r="AC6" t="n">
-        <v>282.672104267416</v>
+        <v>403.0492266305388</v>
       </c>
       <c r="AD6" t="n">
-        <v>228392.2218377228</v>
+        <v>325654.0245408397</v>
       </c>
       <c r="AE6" t="n">
-        <v>312496.3138719292</v>
+        <v>445574.2032183798</v>
       </c>
       <c r="AF6" t="n">
         <v>8.486357993005462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>282672.104267416</v>
+        <v>403049.2266305388</v>
       </c>
     </row>
     <row r="7">
@@ -62598,28 +62598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.5815544603298</v>
+        <v>315.1753592080482</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.38712300206</v>
+        <v>431.2368310239667</v>
       </c>
       <c r="AC7" t="n">
-        <v>281.6687730174075</v>
+        <v>390.0801931157322</v>
       </c>
       <c r="AD7" t="n">
-        <v>227581.5544603298</v>
+        <v>315175.3592080483</v>
       </c>
       <c r="AE7" t="n">
-        <v>311387.12300206</v>
+        <v>431236.8310239667</v>
       </c>
       <c r="AF7" t="n">
         <v>8.564022368330488e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.11458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>281668.7730174076</v>
+        <v>390080.1931157322</v>
       </c>
     </row>
     <row r="8">
@@ -62704,28 +62704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>216.3151456530687</v>
+        <v>313.6442681638898</v>
       </c>
       <c r="AB8" t="n">
-        <v>295.9719254330957</v>
+        <v>429.1419247103793</v>
       </c>
       <c r="AC8" t="n">
-        <v>267.7247802690547</v>
+        <v>388.1852217204941</v>
       </c>
       <c r="AD8" t="n">
-        <v>216315.1456530687</v>
+        <v>313644.2681638898</v>
       </c>
       <c r="AE8" t="n">
-        <v>295971.9254330957</v>
+        <v>429141.9247103793</v>
       </c>
       <c r="AF8" t="n">
         <v>8.698284264135292e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>267724.7802690547</v>
+        <v>388185.2217204941</v>
       </c>
     </row>
     <row r="9">
@@ -62810,28 +62810,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>215.4125183479992</v>
+        <v>312.7416408588203</v>
       </c>
       <c r="AB9" t="n">
-        <v>294.7369109331941</v>
+        <v>427.906910210477</v>
       </c>
       <c r="AC9" t="n">
-        <v>266.6076338196695</v>
+        <v>387.0680752711088</v>
       </c>
       <c r="AD9" t="n">
-        <v>215412.5183479992</v>
+        <v>312741.6408588203</v>
       </c>
       <c r="AE9" t="n">
-        <v>294736.910933194</v>
+        <v>427906.910210477</v>
       </c>
       <c r="AF9" t="n">
         <v>8.759849789190517e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.69791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>266607.6338196695</v>
+        <v>387068.0752711088</v>
       </c>
     </row>
     <row r="10">
@@ -62916,28 +62916,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>215.0090001500371</v>
+        <v>312.3381226608582</v>
       </c>
       <c r="AB10" t="n">
-        <v>294.1847995327761</v>
+        <v>427.3547988100588</v>
       </c>
       <c r="AC10" t="n">
-        <v>266.108215156414</v>
+        <v>386.5686566078531</v>
       </c>
       <c r="AD10" t="n">
-        <v>215009.0001500371</v>
+        <v>312338.1226608581</v>
       </c>
       <c r="AE10" t="n">
-        <v>294184.7995327761</v>
+        <v>427354.7988100587</v>
       </c>
       <c r="AF10" t="n">
         <v>8.825062710009993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>266108.215156414</v>
+        <v>386568.6566078531</v>
       </c>
     </row>
   </sheetData>
@@ -63213,28 +63213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.3933912472317</v>
+        <v>456.0526430399942</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.6398844295313</v>
+        <v>623.9913458299601</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.0630252839939</v>
+        <v>564.4384875613022</v>
       </c>
       <c r="AD2" t="n">
-        <v>318393.3912472317</v>
+        <v>456052.6430399942</v>
       </c>
       <c r="AE2" t="n">
-        <v>435639.8844295313</v>
+        <v>623991.3458299601</v>
       </c>
       <c r="AF2" t="n">
         <v>5.82214617380946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>394063.0252839939</v>
+        <v>564438.4875613021</v>
       </c>
     </row>
     <row r="3">
@@ -63319,28 +63319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.2440322056339</v>
+        <v>418.0655995248017</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.1246895267424</v>
+        <v>572.015797022391</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.2236665263117</v>
+        <v>517.4234121837866</v>
       </c>
       <c r="AD3" t="n">
-        <v>290244.0322056339</v>
+        <v>418065.5995248017</v>
       </c>
       <c r="AE3" t="n">
-        <v>397124.6895267424</v>
+        <v>572015.797022391</v>
       </c>
       <c r="AF3" t="n">
         <v>6.34359212600216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>359223.6665263117</v>
+        <v>517423.4121837866</v>
       </c>
     </row>
     <row r="4">
@@ -63425,28 +63425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.1939265565456</v>
+        <v>393.1104895944144</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.5324710138589</v>
+        <v>537.8711146738855</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.5967404469376</v>
+        <v>486.5374503962598</v>
       </c>
       <c r="AD4" t="n">
-        <v>275193.9265565456</v>
+        <v>393110.4895944144</v>
       </c>
       <c r="AE4" t="n">
-        <v>376532.4710138589</v>
+        <v>537871.1146738855</v>
       </c>
       <c r="AF4" t="n">
         <v>6.71900305343441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>340596.7404469376</v>
+        <v>486537.4503962598</v>
       </c>
     </row>
     <row r="5">
@@ -63531,28 +63531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.6166508523547</v>
+        <v>369.8311800618949</v>
       </c>
       <c r="AB5" t="n">
-        <v>357.9554434082551</v>
+        <v>506.0193363608386</v>
       </c>
       <c r="AC5" t="n">
-        <v>323.7926782829907</v>
+        <v>457.7255611011585</v>
       </c>
       <c r="AD5" t="n">
-        <v>261616.6508523547</v>
+        <v>369831.1800618949</v>
       </c>
       <c r="AE5" t="n">
-        <v>357955.4434082551</v>
+        <v>506019.3363608386</v>
       </c>
       <c r="AF5" t="n">
         <v>7.021570457793136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>323792.6782829906</v>
+        <v>457725.5611011584</v>
       </c>
     </row>
     <row r="6">
@@ -63637,28 +63637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.0653710896911</v>
+        <v>357.2457348804537</v>
       </c>
       <c r="AB6" t="n">
-        <v>340.7822287134348</v>
+        <v>488.7993750329355</v>
       </c>
       <c r="AC6" t="n">
-        <v>308.2584510959882</v>
+        <v>442.149048714023</v>
       </c>
       <c r="AD6" t="n">
-        <v>249065.3710896911</v>
+        <v>357245.7348804537</v>
       </c>
       <c r="AE6" t="n">
-        <v>340782.2287134348</v>
+        <v>488799.3750329355</v>
       </c>
       <c r="AF6" t="n">
         <v>7.252570260660841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>308258.4510959882</v>
+        <v>442149.048714023</v>
       </c>
     </row>
     <row r="7">
@@ -63743,28 +63743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.2730569008506</v>
+        <v>344.582581829095</v>
       </c>
       <c r="AB7" t="n">
-        <v>336.9616612520574</v>
+        <v>471.4730903691822</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.8025132309232</v>
+        <v>426.4763603409849</v>
       </c>
       <c r="AD7" t="n">
-        <v>246273.0569008506</v>
+        <v>344582.581829095</v>
       </c>
       <c r="AE7" t="n">
-        <v>336961.6612520574</v>
+        <v>471473.0903691822</v>
       </c>
       <c r="AF7" t="n">
         <v>7.481830170461501e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>304802.5132309232</v>
+        <v>426476.3603409849</v>
       </c>
     </row>
     <row r="8">
@@ -63849,28 +63849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>245.8449114899668</v>
+        <v>344.1544364182113</v>
       </c>
       <c r="AB8" t="n">
-        <v>336.375853812444</v>
+        <v>470.8872829295685</v>
       </c>
       <c r="AC8" t="n">
-        <v>304.2726144311605</v>
+        <v>425.946461541222</v>
       </c>
       <c r="AD8" t="n">
-        <v>245844.9114899668</v>
+        <v>344154.4364182113</v>
       </c>
       <c r="AE8" t="n">
-        <v>336375.853812444</v>
+        <v>470887.2829295686</v>
       </c>
       <c r="AF8" t="n">
         <v>7.529039269013927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>304272.6144311605</v>
+        <v>425946.4615412221</v>
       </c>
     </row>
     <row r="9">
@@ -63955,28 +63955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>234.4152290196265</v>
+        <v>332.7920737555751</v>
       </c>
       <c r="AB9" t="n">
-        <v>320.7372580145291</v>
+        <v>455.340797062487</v>
       </c>
       <c r="AC9" t="n">
-        <v>290.1265442672865</v>
+        <v>411.8837104656649</v>
       </c>
       <c r="AD9" t="n">
-        <v>234415.2290196265</v>
+        <v>332792.0737555751</v>
       </c>
       <c r="AE9" t="n">
-        <v>320737.2580145291</v>
+        <v>455340.797062487</v>
       </c>
       <c r="AF9" t="n">
         <v>7.661097152802469e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>290126.5442672865</v>
+        <v>411883.7104656649</v>
       </c>
     </row>
     <row r="10">
@@ -64061,28 +64061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>233.4685113411236</v>
+        <v>331.8453560770722</v>
       </c>
       <c r="AB10" t="n">
-        <v>319.4419171205659</v>
+        <v>454.0454561685232</v>
       </c>
       <c r="AC10" t="n">
-        <v>288.9548288902204</v>
+        <v>410.7119950885986</v>
       </c>
       <c r="AD10" t="n">
-        <v>233468.5113411236</v>
+        <v>331845.3560770722</v>
       </c>
       <c r="AE10" t="n">
-        <v>319441.9171205659</v>
+        <v>454045.4561685232</v>
       </c>
       <c r="AF10" t="n">
         <v>7.719441566983968e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>288954.8288902204</v>
+        <v>410711.9950885986</v>
       </c>
     </row>
     <row r="11">
@@ -64167,28 +64167,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>231.8540521216574</v>
+        <v>330.1294116311208</v>
       </c>
       <c r="AB11" t="n">
-        <v>317.2329427915794</v>
+        <v>451.6976252754462</v>
       </c>
       <c r="AC11" t="n">
-        <v>286.9566759708766</v>
+        <v>408.5882378807556</v>
       </c>
       <c r="AD11" t="n">
-        <v>231854.0521216574</v>
+        <v>330129.4116311208</v>
       </c>
       <c r="AE11" t="n">
-        <v>317232.9427915793</v>
+        <v>451697.6252754462</v>
       </c>
       <c r="AF11" t="n">
         <v>7.86304074145056e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH11" t="n">
-        <v>286956.6759708766</v>
+        <v>408588.2378807556</v>
       </c>
     </row>
     <row r="12">
@@ -64273,28 +64273,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>230.854450243441</v>
+        <v>319.3604561168714</v>
       </c>
       <c r="AB12" t="n">
-        <v>315.865243402482</v>
+        <v>436.9630652480633</v>
       </c>
       <c r="AC12" t="n">
-        <v>285.7195078918961</v>
+        <v>395.2599235823013</v>
       </c>
       <c r="AD12" t="n">
-        <v>230854.450243441</v>
+        <v>319360.4561168714</v>
       </c>
       <c r="AE12" t="n">
-        <v>315865.243402482</v>
+        <v>436963.0652480634</v>
       </c>
       <c r="AF12" t="n">
         <v>7.932056499776587e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>285719.5078918961</v>
+        <v>395259.9235823012</v>
       </c>
     </row>
     <row r="13">
@@ -64379,28 +64379,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>220.0529197350368</v>
+        <v>318.3955990522044</v>
       </c>
       <c r="AB13" t="n">
-        <v>301.0861128309965</v>
+        <v>435.6429052456965</v>
       </c>
       <c r="AC13" t="n">
-        <v>272.3508767995085</v>
+        <v>394.0657577977041</v>
       </c>
       <c r="AD13" t="n">
-        <v>220052.9197350368</v>
+        <v>318395.5990522044</v>
       </c>
       <c r="AE13" t="n">
-        <v>301086.1128309965</v>
+        <v>435642.9052456965</v>
       </c>
       <c r="AF13" t="n">
         <v>7.98999493890911e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH13" t="n">
-        <v>272350.8767995085</v>
+        <v>394065.7577977041</v>
       </c>
     </row>
     <row r="14">
@@ -64485,28 +64485,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>220.3249155530291</v>
+        <v>318.6675948701968</v>
       </c>
       <c r="AB14" t="n">
-        <v>301.458269508782</v>
+        <v>436.0150619234822</v>
       </c>
       <c r="AC14" t="n">
-        <v>272.6875153662914</v>
+        <v>394.4023963644871</v>
       </c>
       <c r="AD14" t="n">
-        <v>220324.9155530291</v>
+        <v>318667.5948701968</v>
       </c>
       <c r="AE14" t="n">
-        <v>301458.269508782</v>
+        <v>436015.0619234822</v>
       </c>
       <c r="AF14" t="n">
         <v>7.971088100913912e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>272687.5153662915</v>
+        <v>394402.3963644871</v>
       </c>
     </row>
   </sheetData>
